--- a/figures/tables/Tables.xlsx
+++ b/figures/tables/Tables.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tagliacollo/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/VATagliacollo/GitHub/PartitionUCE/figures/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="3600" windowWidth="22060" windowHeight="9660" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="3540" yWindow="3600" windowWidth="22060" windowHeight="9660" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="PF-emp" sheetId="2" r:id="rId1"/>
@@ -131,7 +131,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -149,6 +149,48 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="161"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="161"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="161"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="161"/>
     </font>
   </fonts>
   <fills count="2">
@@ -188,10 +230,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -200,12 +248,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -220,9 +262,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -232,8 +271,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -511,565 +595,565 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A36"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection sqref="A1:E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.83203125" customWidth="1"/>
-    <col min="2" max="5" width="15.83203125" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="21">
         <v>2481257.253</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="18">
         <v>1</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="18">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6" t="s">
+    <row r="3" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="21">
         <v>2458688.9500000002</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="18">
         <v>85</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="18">
         <v>866</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6" t="s">
+    <row r="4" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="21">
         <v>2467719.0279999999</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="18">
         <v>1145</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="18">
         <v>11466</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6" t="s">
+    <row r="5" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="21">
         <v>2456062.6209999998</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="18">
         <v>222</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="18">
         <v>2236</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6" t="s">
+    <row r="6" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="21">
         <v>2410728.4369999999</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="18">
         <v>456</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="18">
         <v>4576</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6" t="s">
+    <row r="7" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="17"/>
+      <c r="B7" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="21">
         <v>2397171.3229999999</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="18">
         <v>461</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="18">
         <v>4626</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6" t="s">
+    <row r="8" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="17"/>
+      <c r="B8" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="22">
         <v>2380958.4180000001</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="18">
         <v>452</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="18">
         <v>4536</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="21">
         <v>3192533.0189999999</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="18">
         <v>1</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="18">
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6" t="s">
+    <row r="10" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="21">
         <v>3166285.986</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="18">
         <v>101</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="18">
         <v>1072</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6" t="s">
+    <row r="11" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="21">
         <v>3162976.03</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="18">
         <v>1541</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="18">
         <v>15472</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6" t="s">
+    <row r="12" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="21">
         <v>3147457.96</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="18">
         <v>318</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="18">
         <v>3242</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6" t="s">
+    <row r="13" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="21">
         <v>3088673.338</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="18">
         <v>615</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="18">
         <v>6212</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6" t="s">
+    <row r="14" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="21">
         <v>3094082.2310000001</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="18">
         <v>638</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="18">
         <v>6442</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6" t="s">
+    <row r="15" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="22">
         <v>3055310.19</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="18">
         <v>586</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="18">
         <v>5922</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
+    <row r="16" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="21">
         <v>3833182.3650000002</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="18">
         <v>1</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="18">
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6" t="s">
+    <row r="17" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="21">
         <v>3800797.49</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="18">
         <v>114</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="18">
         <v>1246</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6" t="s">
+    <row r="18" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="21">
         <v>3796629.2769999998</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="18">
         <v>596</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="18">
         <v>6066</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6" t="s">
+    <row r="19" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="21">
         <v>3793471.4890000001</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="18">
         <v>267</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="18">
         <v>2776</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6" t="s">
+    <row r="20" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="17"/>
+      <c r="B20" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="21">
         <v>3736560.327</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="18">
         <v>513</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="18">
         <v>5236</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6" t="s">
+    <row r="21" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="17"/>
+      <c r="B21" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="21">
         <v>3695066.8650000002</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="18">
         <v>493</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="18">
         <v>5036</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6" t="s">
+    <row r="22" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="17"/>
+      <c r="B22" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="22">
         <v>3687954.4640000002</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="18">
         <v>493</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="18">
         <v>5036</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
+    <row r="23" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="21">
         <v>2339168.0060000001</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="18">
         <v>1</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="18">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6" t="s">
+    <row r="24" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="17"/>
+      <c r="B24" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="21">
         <v>2314873.8590000002</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="18">
         <v>97</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="18">
         <v>1002</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6" t="s">
+    <row r="25" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="21">
         <v>2316403.8119999999</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="18">
         <v>1479</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="18">
         <v>14822</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6" t="s">
+    <row r="26" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="17"/>
+      <c r="B26" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="21">
         <v>2299674.1060000001</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="18">
         <v>249</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="18">
         <v>2522</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6" t="s">
+    <row r="27" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="17"/>
+      <c r="B27" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="21">
         <v>2255397.716</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="18">
         <v>463</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="18">
         <v>4662</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6" t="s">
+    <row r="28" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="17"/>
+      <c r="B28" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="21">
         <v>2254128.227</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="18">
         <v>471</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="18">
         <v>4742</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6" t="s">
+    <row r="29" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="17"/>
+      <c r="B29" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="22">
         <v>2238583.6069999998</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="18">
         <v>458</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="18">
         <v>4612</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
+    <row r="30" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="21">
         <v>6005671.7549999999</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="18">
         <v>1</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="18">
         <v>218</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6" t="s">
+    <row r="31" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="17"/>
+      <c r="B31" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="21">
         <v>5936151.6310000001</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="18">
         <v>200</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="18">
         <v>2208</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6" t="s">
+    <row r="32" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="17"/>
+      <c r="B32" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="21">
         <v>5937376.8200000003</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="18">
         <v>515</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="18">
         <v>5358</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6" t="s">
+    <row r="33" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="17"/>
+      <c r="B33" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="21">
         <v>5935114.2630000003</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="18">
         <v>271</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="18">
         <v>2918</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6" t="s">
+    <row r="34" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="17"/>
+      <c r="B34" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="21">
         <v>5839663.7740000002</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="18">
         <v>520</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="18">
         <v>5408</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6" t="s">
+    <row r="35" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="17"/>
+      <c r="B35" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="21">
         <v>5820918.0920000002</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="18">
         <v>496</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35" s="18">
         <v>5168</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10" t="s">
+    <row r="36" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="19"/>
+      <c r="B36" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="23">
         <v>5774753.4500000002</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D36" s="20">
         <v>496</v>
       </c>
-      <c r="E36" s="8">
+      <c r="E36" s="20">
         <v>5168</v>
       </c>
     </row>
@@ -1092,1905 +1176,1905 @@
     <col min="2" max="5" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="5">
         <v>0</v>
       </c>
       <c r="C2" s="2">
         <v>2442356.1719999998</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="5">
         <v>371</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="5">
         <v>3726</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="12"/>
-      <c r="B3" s="7">
+    <row r="3" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9"/>
+      <c r="B3" s="5">
         <v>1</v>
       </c>
       <c r="C3" s="2">
         <v>2442400.1460000002</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="5">
         <v>375</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="5">
         <v>3766</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12"/>
-      <c r="B4" s="7">
+    <row r="4" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="9"/>
+      <c r="B4" s="5">
         <v>2</v>
       </c>
       <c r="C4" s="2">
         <v>2442156.8849999998</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="5">
         <v>375</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="5">
         <v>3766</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="12"/>
-      <c r="B5" s="7">
+    <row r="5" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="9"/>
+      <c r="B5" s="5">
         <v>3</v>
       </c>
       <c r="C5" s="2">
         <v>2442373.6970000002</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="5">
         <v>363</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="5">
         <v>3646</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="12"/>
-      <c r="B6" s="7">
+    <row r="6" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9"/>
+      <c r="B6" s="5">
         <v>4</v>
       </c>
       <c r="C6" s="2">
         <v>2442109.8280000002</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="5">
         <v>372</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="5">
         <v>3736</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="12"/>
-      <c r="B7" s="7">
+    <row r="7" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="9"/>
+      <c r="B7" s="5">
         <v>5</v>
       </c>
       <c r="C7" s="2">
         <v>2442905.5550000002</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="5">
         <v>372</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="5">
         <v>3736</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
-      <c r="B8" s="7">
+    <row r="8" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9"/>
+      <c r="B8" s="5">
         <v>6</v>
       </c>
       <c r="C8" s="2">
         <v>2442170.7689999999</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="5">
         <v>359</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="5">
         <v>3606</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="12"/>
-      <c r="B9" s="7">
+    <row r="9" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="9"/>
+      <c r="B9" s="5">
         <v>7</v>
       </c>
       <c r="C9" s="2">
         <v>2442339.6880000001</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="5">
         <v>349</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="5">
         <v>3506</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="12"/>
-      <c r="B10" s="7">
+    <row r="10" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="9"/>
+      <c r="B10" s="5">
         <v>8</v>
       </c>
       <c r="C10" s="2">
         <v>2442199.7820000001</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="5">
         <v>353</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="5">
         <v>3546</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12"/>
-      <c r="B11" s="7">
+    <row r="11" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="9"/>
+      <c r="B11" s="5">
         <v>9</v>
       </c>
       <c r="C11" s="2">
         <v>2442335.7820000001</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="5">
         <v>352</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="5">
         <v>3536</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
-      <c r="B12" s="7">
+    <row r="12" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="9"/>
+      <c r="B12" s="5">
         <v>10</v>
       </c>
       <c r="C12" s="2">
         <v>2442270.963</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="5">
         <v>370</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="5">
         <v>3716</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="12"/>
-      <c r="B13" s="7">
+    <row r="13" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="9"/>
+      <c r="B13" s="5">
         <v>11</v>
       </c>
       <c r="C13" s="2">
         <v>2442329.469</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="5">
         <v>355</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="5">
         <v>3566</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="12"/>
-      <c r="B14" s="7">
+    <row r="14" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="9"/>
+      <c r="B14" s="5">
         <v>12</v>
       </c>
       <c r="C14" s="2">
         <v>2442607</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="5">
         <v>362</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="5">
         <v>3636</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="12"/>
-      <c r="B15" s="7">
+    <row r="15" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="9"/>
+      <c r="B15" s="5">
         <v>13</v>
       </c>
       <c r="C15" s="2">
         <v>2442424.7340000002</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="5">
         <v>359</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="5">
         <v>3606</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="12"/>
-      <c r="B16" s="7">
+    <row r="16" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="9"/>
+      <c r="B16" s="5">
         <v>14</v>
       </c>
       <c r="C16" s="2">
         <v>2442332.1230000001</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="5">
         <v>368</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="5">
         <v>3696</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="12"/>
-      <c r="B17" s="7">
+    <row r="17" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="9"/>
+      <c r="B17" s="5">
         <v>15</v>
       </c>
       <c r="C17" s="2">
         <v>2442578.9640000002</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="5">
         <v>368</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="5">
         <v>3696</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="12"/>
-      <c r="B18" s="7">
+    <row r="18" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="9"/>
+      <c r="B18" s="5">
         <v>16</v>
       </c>
       <c r="C18" s="2">
         <v>2442268.1140000001</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="5">
         <v>361</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="5">
         <v>3626</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="12"/>
-      <c r="B19" s="7">
+    <row r="19" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="9"/>
+      <c r="B19" s="5">
         <v>17</v>
       </c>
       <c r="C19" s="2">
         <v>2442568.4759999998</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="5">
         <v>362</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="5">
         <v>3636</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="12"/>
-      <c r="B20" s="7">
+    <row r="20" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="9"/>
+      <c r="B20" s="5">
         <v>18</v>
       </c>
       <c r="C20" s="2">
         <v>2442152.4649999999</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="5">
         <v>363</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="5">
         <v>3646</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="12"/>
-      <c r="B21" s="7">
+    <row r="21" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="9"/>
+      <c r="B21" s="5">
         <v>19</v>
       </c>
       <c r="C21" s="2">
         <v>2442220.2480000001</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="5">
         <v>355</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="5">
         <v>3566</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="12"/>
-      <c r="B22" s="7">
+    <row r="22" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="9"/>
+      <c r="B22" s="5">
         <v>20</v>
       </c>
       <c r="C22" s="2">
         <v>2442460.5499999998</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="5">
         <v>362</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="5">
         <v>3636</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="12"/>
-      <c r="B23" s="7">
+    <row r="23" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="9"/>
+      <c r="B23" s="5">
         <v>21</v>
       </c>
       <c r="C23" s="2">
         <v>2442696.926</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="5">
         <v>363</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="5">
         <v>3646</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="12"/>
-      <c r="B24" s="7">
+    <row r="24" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="9"/>
+      <c r="B24" s="5">
         <v>22</v>
       </c>
       <c r="C24" s="2">
         <v>2442417.7250000001</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="5">
         <v>356</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="5">
         <v>3576</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="12"/>
-      <c r="B25" s="7">
+    <row r="25" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="9"/>
+      <c r="B25" s="5">
         <v>23</v>
       </c>
       <c r="C25" s="2">
         <v>2442182.7209999999</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="5">
         <v>359</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="5">
         <v>3606</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="12"/>
-      <c r="B26" s="7">
+    <row r="26" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="9"/>
+      <c r="B26" s="5">
         <v>24</v>
       </c>
       <c r="C26" s="2">
         <v>2442494.1439999999</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="5">
         <v>357</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="5">
         <v>3586</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
+    <row r="27" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="5">
         <v>0</v>
       </c>
       <c r="C27" s="2">
         <v>3122202.3220000002</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="5">
         <v>535</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="5">
         <v>5412</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="12"/>
-      <c r="B28" s="7">
+    <row r="28" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="9"/>
+      <c r="B28" s="5">
         <v>1</v>
       </c>
       <c r="C28" s="2">
         <v>3122404.477</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="5">
         <v>518</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="5">
         <v>5242</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="12"/>
-      <c r="B29" s="7">
+    <row r="29" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="9"/>
+      <c r="B29" s="5">
         <v>2</v>
       </c>
       <c r="C29" s="2">
         <v>3122198.949</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="5">
         <v>521</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="5">
         <v>5272</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="12"/>
-      <c r="B30" s="7">
+    <row r="30" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="9"/>
+      <c r="B30" s="5">
         <v>3</v>
       </c>
       <c r="C30" s="2">
         <v>3122116.3960000002</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="5">
         <v>527</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="5">
         <v>5332</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="12"/>
-      <c r="B31" s="7">
+    <row r="31" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="9"/>
+      <c r="B31" s="5">
         <v>4</v>
       </c>
       <c r="C31" s="2">
         <v>3121741.0809999998</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="5">
         <v>533</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="5">
         <v>5392</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="12"/>
-      <c r="B32" s="7">
+    <row r="32" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="9"/>
+      <c r="B32" s="5">
         <v>5</v>
       </c>
       <c r="C32" s="2">
         <v>3121927.32</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="5">
         <v>522</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="5">
         <v>5282</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="12"/>
-      <c r="B33" s="7">
+    <row r="33" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="9"/>
+      <c r="B33" s="5">
         <v>6</v>
       </c>
       <c r="C33" s="2">
         <v>3122142.3280000002</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="5">
         <v>523</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="5">
         <v>5292</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="12"/>
-      <c r="B34" s="7">
+    <row r="34" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="9"/>
+      <c r="B34" s="5">
         <v>7</v>
       </c>
       <c r="C34" s="2">
         <v>3121679.767</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="5">
         <v>540</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="5">
         <v>5462</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="12"/>
-      <c r="B35" s="7">
+    <row r="35" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="9"/>
+      <c r="B35" s="5">
         <v>8</v>
       </c>
       <c r="C35" s="2">
         <v>3122056.2059999998</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="5">
         <v>531</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35" s="5">
         <v>5372</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="12"/>
-      <c r="B36" s="7">
+    <row r="36" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="9"/>
+      <c r="B36" s="5">
         <v>9</v>
       </c>
       <c r="C36" s="2">
         <v>3121800.375</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D36" s="5">
         <v>531</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36" s="5">
         <v>5372</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="12"/>
-      <c r="B37" s="7">
+    <row r="37" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="9"/>
+      <c r="B37" s="5">
         <v>10</v>
       </c>
       <c r="C37" s="2">
         <v>3122632.1770000001</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" s="5">
         <v>531</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="5">
         <v>5372</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="12"/>
-      <c r="B38" s="7">
+    <row r="38" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="9"/>
+      <c r="B38" s="5">
         <v>11</v>
       </c>
       <c r="C38" s="2">
         <v>3122394.74</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D38" s="5">
         <v>523</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E38" s="5">
         <v>5292</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="12"/>
-      <c r="B39" s="7">
+    <row r="39" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="9"/>
+      <c r="B39" s="5">
         <v>12</v>
       </c>
       <c r="C39" s="2">
         <v>3122215.3190000001</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39" s="5">
         <v>522</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E39" s="5">
         <v>5282</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="12"/>
-      <c r="B40" s="7">
+    <row r="40" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="9"/>
+      <c r="B40" s="5">
         <v>13</v>
       </c>
       <c r="C40" s="2">
         <v>3121763.6340000001</v>
       </c>
-      <c r="D40" s="7">
+      <c r="D40" s="5">
         <v>520</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E40" s="5">
         <v>5262</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="12"/>
-      <c r="B41" s="7">
+    <row r="41" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="9"/>
+      <c r="B41" s="5">
         <v>14</v>
       </c>
       <c r="C41" s="2">
         <v>3121660.3130000001</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D41" s="5">
         <v>524</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41" s="5">
         <v>5302</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="12"/>
-      <c r="B42" s="7">
+    <row r="42" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="9"/>
+      <c r="B42" s="5">
         <v>15</v>
       </c>
       <c r="C42" s="2">
         <v>3122477.4589999998</v>
       </c>
-      <c r="D42" s="7">
+      <c r="D42" s="5">
         <v>530</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E42" s="5">
         <v>5362</v>
       </c>
     </row>
-    <row r="43" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="12"/>
-      <c r="B43" s="7">
+    <row r="43" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="9"/>
+      <c r="B43" s="5">
         <v>16</v>
       </c>
       <c r="C43" s="2">
         <v>3122398.906</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D43" s="5">
         <v>497</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E43" s="5">
         <v>5032</v>
       </c>
     </row>
-    <row r="44" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="12"/>
-      <c r="B44" s="7">
+    <row r="44" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="9"/>
+      <c r="B44" s="5">
         <v>17</v>
       </c>
       <c r="C44" s="2">
         <v>3122338.6660000002</v>
       </c>
-      <c r="D44" s="7">
+      <c r="D44" s="5">
         <v>531</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E44" s="5">
         <v>5372</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="12"/>
-      <c r="B45" s="7">
+    <row r="45" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="9"/>
+      <c r="B45" s="5">
         <v>18</v>
       </c>
       <c r="C45" s="2">
         <v>3121960.8369999998</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D45" s="5">
         <v>528</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E45" s="5">
         <v>5342</v>
       </c>
     </row>
-    <row r="46" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="12"/>
-      <c r="B46" s="7">
+    <row r="46" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="9"/>
+      <c r="B46" s="5">
         <v>19</v>
       </c>
       <c r="C46" s="2">
         <v>3122502.611</v>
       </c>
-      <c r="D46" s="7">
+      <c r="D46" s="5">
         <v>523</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E46" s="5">
         <v>5292</v>
       </c>
     </row>
-    <row r="47" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="12"/>
-      <c r="B47" s="7">
+    <row r="47" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="9"/>
+      <c r="B47" s="5">
         <v>20</v>
       </c>
       <c r="C47" s="2">
         <v>3122022.0249999999</v>
       </c>
-      <c r="D47" s="7">
+      <c r="D47" s="5">
         <v>523</v>
       </c>
-      <c r="E47" s="7">
+      <c r="E47" s="5">
         <v>5292</v>
       </c>
     </row>
-    <row r="48" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="12"/>
-      <c r="B48" s="7">
+    <row r="48" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="9"/>
+      <c r="B48" s="5">
         <v>21</v>
       </c>
       <c r="C48" s="2">
         <v>3122035.9470000002</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D48" s="5">
         <v>556</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E48" s="5">
         <v>5622</v>
       </c>
     </row>
-    <row r="49" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="12"/>
-      <c r="B49" s="7">
+    <row r="49" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="9"/>
+      <c r="B49" s="5">
         <v>22</v>
       </c>
       <c r="C49" s="2">
         <v>3121512.2609999999</v>
       </c>
-      <c r="D49" s="7">
+      <c r="D49" s="5">
         <v>544</v>
       </c>
-      <c r="E49" s="7">
+      <c r="E49" s="5">
         <v>5502</v>
       </c>
     </row>
-    <row r="50" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="12"/>
-      <c r="B50" s="7">
+    <row r="50" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="9"/>
+      <c r="B50" s="5">
         <v>23</v>
       </c>
       <c r="C50" s="2">
         <v>3122175.8339999998</v>
       </c>
-      <c r="D50" s="7">
+      <c r="D50" s="5">
         <v>520</v>
       </c>
-      <c r="E50" s="7">
+      <c r="E50" s="5">
         <v>5262</v>
       </c>
     </row>
-    <row r="51" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="12"/>
-      <c r="B51" s="7">
+    <row r="51" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="9"/>
+      <c r="B51" s="5">
         <v>24</v>
       </c>
       <c r="C51" s="2">
         <v>3121847.213</v>
       </c>
-      <c r="D51" s="7">
+      <c r="D51" s="5">
         <v>528</v>
       </c>
-      <c r="E51" s="7">
+      <c r="E51" s="5">
         <v>5342</v>
       </c>
     </row>
-    <row r="52" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="6" t="s">
+    <row r="52" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B52" s="7">
+      <c r="B52" s="5">
         <v>0</v>
       </c>
       <c r="C52" s="2">
         <v>3783511.8960000002</v>
       </c>
-      <c r="D52" s="7">
+      <c r="D52" s="5">
         <v>382</v>
       </c>
-      <c r="E52" s="7">
+      <c r="E52" s="5">
         <v>3926</v>
       </c>
     </row>
-    <row r="53" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="12"/>
-      <c r="B53" s="7">
+    <row r="53" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="9"/>
+      <c r="B53" s="5">
         <v>1</v>
       </c>
       <c r="C53" s="2">
         <v>3783646.2829999998</v>
       </c>
-      <c r="D53" s="7">
+      <c r="D53" s="5">
         <v>388</v>
       </c>
-      <c r="E53" s="7">
+      <c r="E53" s="5">
         <v>3986</v>
       </c>
     </row>
-    <row r="54" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="12"/>
-      <c r="B54" s="7">
+    <row r="54" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="9"/>
+      <c r="B54" s="5">
         <v>2</v>
       </c>
       <c r="C54" s="2">
         <v>3783737.6570000001</v>
       </c>
-      <c r="D54" s="7">
+      <c r="D54" s="5">
         <v>381</v>
       </c>
-      <c r="E54" s="7">
+      <c r="E54" s="5">
         <v>3916</v>
       </c>
     </row>
-    <row r="55" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="12"/>
-      <c r="B55" s="7">
+    <row r="55" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="9"/>
+      <c r="B55" s="5">
         <v>3</v>
       </c>
       <c r="C55" s="2">
         <v>3784042.7749999999</v>
       </c>
-      <c r="D55" s="7">
+      <c r="D55" s="5">
         <v>375</v>
       </c>
-      <c r="E55" s="7">
+      <c r="E55" s="5">
         <v>3856</v>
       </c>
     </row>
-    <row r="56" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="12"/>
-      <c r="B56" s="7">
+    <row r="56" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="9"/>
+      <c r="B56" s="5">
         <v>4</v>
       </c>
       <c r="C56" s="2">
         <v>3783819.14</v>
       </c>
-      <c r="D56" s="7">
+      <c r="D56" s="5">
         <v>386</v>
       </c>
-      <c r="E56" s="7">
+      <c r="E56" s="5">
         <v>3966</v>
       </c>
     </row>
-    <row r="57" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="12"/>
-      <c r="B57" s="7">
+    <row r="57" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="9"/>
+      <c r="B57" s="5">
         <v>5</v>
       </c>
       <c r="C57" s="2">
         <v>3784052.8870000001</v>
       </c>
-      <c r="D57" s="7">
+      <c r="D57" s="5">
         <v>398</v>
       </c>
-      <c r="E57" s="7">
+      <c r="E57" s="5">
         <v>4086</v>
       </c>
     </row>
-    <row r="58" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="12"/>
-      <c r="B58" s="7">
+    <row r="58" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="9"/>
+      <c r="B58" s="5">
         <v>6</v>
       </c>
       <c r="C58" s="2">
         <v>3784137.5070000002</v>
       </c>
-      <c r="D58" s="7">
+      <c r="D58" s="5">
         <v>384</v>
       </c>
-      <c r="E58" s="7">
+      <c r="E58" s="5">
         <v>3946</v>
       </c>
     </row>
-    <row r="59" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="12"/>
-      <c r="B59" s="7">
+    <row r="59" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="9"/>
+      <c r="B59" s="5">
         <v>7</v>
       </c>
       <c r="C59" s="2">
         <v>3783569.645</v>
       </c>
-      <c r="D59" s="7">
+      <c r="D59" s="5">
         <v>395</v>
       </c>
-      <c r="E59" s="7">
+      <c r="E59" s="5">
         <v>4056</v>
       </c>
     </row>
-    <row r="60" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="12"/>
-      <c r="B60" s="7">
+    <row r="60" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="9"/>
+      <c r="B60" s="5">
         <v>8</v>
       </c>
       <c r="C60" s="2">
         <v>3783189.6609999998</v>
       </c>
-      <c r="D60" s="7">
+      <c r="D60" s="5">
         <v>383</v>
       </c>
-      <c r="E60" s="7">
+      <c r="E60" s="5">
         <v>3936</v>
       </c>
     </row>
-    <row r="61" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="12"/>
-      <c r="B61" s="7">
+    <row r="61" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="9"/>
+      <c r="B61" s="5">
         <v>9</v>
       </c>
       <c r="C61" s="2">
         <v>3783470.6529999999</v>
       </c>
-      <c r="D61" s="7">
+      <c r="D61" s="5">
         <v>383</v>
       </c>
-      <c r="E61" s="7">
+      <c r="E61" s="5">
         <v>3936</v>
       </c>
     </row>
-    <row r="62" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="12"/>
-      <c r="B62" s="7">
+    <row r="62" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="9"/>
+      <c r="B62" s="5">
         <v>10</v>
       </c>
       <c r="C62" s="2">
         <v>3783416.5070000002</v>
       </c>
-      <c r="D62" s="7">
+      <c r="D62" s="5">
         <v>388</v>
       </c>
-      <c r="E62" s="7">
+      <c r="E62" s="5">
         <v>3986</v>
       </c>
     </row>
-    <row r="63" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="12"/>
-      <c r="B63" s="7">
+    <row r="63" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="9"/>
+      <c r="B63" s="5">
         <v>11</v>
       </c>
       <c r="C63" s="2">
         <v>3784107.753</v>
       </c>
-      <c r="D63" s="7">
+      <c r="D63" s="5">
         <v>387</v>
       </c>
-      <c r="E63" s="7">
+      <c r="E63" s="5">
         <v>3976</v>
       </c>
     </row>
-    <row r="64" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="12"/>
-      <c r="B64" s="7">
+    <row r="64" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="9"/>
+      <c r="B64" s="5">
         <v>12</v>
       </c>
       <c r="C64" s="2">
         <v>3783279.1510000001</v>
       </c>
-      <c r="D64" s="7">
+      <c r="D64" s="5">
         <v>397</v>
       </c>
-      <c r="E64" s="7">
+      <c r="E64" s="5">
         <v>4076</v>
       </c>
     </row>
-    <row r="65" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="12"/>
-      <c r="B65" s="7">
+    <row r="65" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="9"/>
+      <c r="B65" s="5">
         <v>13</v>
       </c>
       <c r="C65" s="2">
         <v>3783985.1809999999</v>
       </c>
-      <c r="D65" s="7">
+      <c r="D65" s="5">
         <v>378</v>
       </c>
-      <c r="E65" s="7">
+      <c r="E65" s="5">
         <v>3886</v>
       </c>
     </row>
-    <row r="66" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="12"/>
-      <c r="B66" s="7">
+    <row r="66" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="9"/>
+      <c r="B66" s="5">
         <v>14</v>
       </c>
       <c r="C66" s="2">
         <v>3783733.0219999999</v>
       </c>
-      <c r="D66" s="7">
+      <c r="D66" s="5">
         <v>399</v>
       </c>
-      <c r="E66" s="7">
+      <c r="E66" s="5">
         <v>4096</v>
       </c>
     </row>
-    <row r="67" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="12"/>
-      <c r="B67" s="7">
+    <row r="67" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="9"/>
+      <c r="B67" s="5">
         <v>15</v>
       </c>
       <c r="C67" s="2">
         <v>3784420.912</v>
       </c>
-      <c r="D67" s="7">
+      <c r="D67" s="5">
         <v>386</v>
       </c>
-      <c r="E67" s="7">
+      <c r="E67" s="5">
         <v>3966</v>
       </c>
     </row>
-    <row r="68" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="12"/>
-      <c r="B68" s="7">
+    <row r="68" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="9"/>
+      <c r="B68" s="5">
         <v>16</v>
       </c>
       <c r="C68" s="2">
         <v>3783805.3280000002</v>
       </c>
-      <c r="D68" s="7">
+      <c r="D68" s="5">
         <v>392</v>
       </c>
-      <c r="E68" s="7">
+      <c r="E68" s="5">
         <v>4026</v>
       </c>
     </row>
-    <row r="69" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="12"/>
-      <c r="B69" s="7">
+    <row r="69" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="9"/>
+      <c r="B69" s="5">
         <v>17</v>
       </c>
       <c r="C69" s="2">
         <v>3783623.5610000002</v>
       </c>
-      <c r="D69" s="7">
+      <c r="D69" s="5">
         <v>400</v>
       </c>
-      <c r="E69" s="7">
+      <c r="E69" s="5">
         <v>4106</v>
       </c>
     </row>
-    <row r="70" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="12"/>
-      <c r="B70" s="7">
+    <row r="70" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="9"/>
+      <c r="B70" s="5">
         <v>18</v>
       </c>
       <c r="C70" s="2">
         <v>3783549.1069999998</v>
       </c>
-      <c r="D70" s="7">
+      <c r="D70" s="5">
         <v>400</v>
       </c>
-      <c r="E70" s="7">
+      <c r="E70" s="5">
         <v>4106</v>
       </c>
     </row>
-    <row r="71" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="12"/>
-      <c r="B71" s="7">
+    <row r="71" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="9"/>
+      <c r="B71" s="5">
         <v>19</v>
       </c>
       <c r="C71" s="2">
         <v>3783912.7740000002</v>
       </c>
-      <c r="D71" s="7">
+      <c r="D71" s="5">
         <v>395</v>
       </c>
-      <c r="E71" s="7">
+      <c r="E71" s="5">
         <v>4056</v>
       </c>
     </row>
-    <row r="72" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="12"/>
-      <c r="B72" s="7">
+    <row r="72" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="9"/>
+      <c r="B72" s="5">
         <v>20</v>
       </c>
       <c r="C72" s="2">
         <v>3783901.0550000002</v>
       </c>
-      <c r="D72" s="7">
+      <c r="D72" s="5">
         <v>397</v>
       </c>
-      <c r="E72" s="7">
+      <c r="E72" s="5">
         <v>4076</v>
       </c>
     </row>
-    <row r="73" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="12"/>
-      <c r="B73" s="7">
+    <row r="73" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="9"/>
+      <c r="B73" s="5">
         <v>21</v>
       </c>
       <c r="C73" s="2">
         <v>3783465.4449999998</v>
       </c>
-      <c r="D73" s="7">
+      <c r="D73" s="5">
         <v>406</v>
       </c>
-      <c r="E73" s="7">
+      <c r="E73" s="5">
         <v>4166</v>
       </c>
     </row>
-    <row r="74" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="12"/>
-      <c r="B74" s="7">
+    <row r="74" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="9"/>
+      <c r="B74" s="5">
         <v>22</v>
       </c>
       <c r="C74" s="2">
         <v>3783985.4780000001</v>
       </c>
-      <c r="D74" s="7">
+      <c r="D74" s="5">
         <v>388</v>
       </c>
-      <c r="E74" s="7">
+      <c r="E74" s="5">
         <v>3986</v>
       </c>
     </row>
-    <row r="75" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="12"/>
-      <c r="B75" s="7">
+    <row r="75" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="9"/>
+      <c r="B75" s="5">
         <v>23</v>
       </c>
       <c r="C75" s="2">
         <v>3783516.3050000002</v>
       </c>
-      <c r="D75" s="7">
+      <c r="D75" s="5">
         <v>382</v>
       </c>
-      <c r="E75" s="7">
+      <c r="E75" s="5">
         <v>3926</v>
       </c>
     </row>
-    <row r="76" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="12"/>
-      <c r="B76" s="7">
+    <row r="76" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="9"/>
+      <c r="B76" s="5">
         <v>24</v>
       </c>
       <c r="C76" s="2">
         <v>3784007.9840000002</v>
       </c>
-      <c r="D76" s="7">
+      <c r="D76" s="5">
         <v>383</v>
       </c>
-      <c r="E76" s="7">
+      <c r="E76" s="5">
         <v>3936</v>
       </c>
     </row>
-    <row r="77" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="6" t="s">
+    <row r="77" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B77" s="7">
+      <c r="B77" s="5">
         <v>0</v>
       </c>
       <c r="C77" s="2">
         <v>2283782.0490000001</v>
       </c>
-      <c r="D77" s="7">
+      <c r="D77" s="5">
         <v>394</v>
       </c>
-      <c r="E77" s="7">
+      <c r="E77" s="5">
         <v>3972</v>
       </c>
     </row>
-    <row r="78" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="12"/>
-      <c r="B78" s="7">
+    <row r="78" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="9"/>
+      <c r="B78" s="5">
         <v>1</v>
       </c>
       <c r="C78" s="2">
         <v>2283559.514</v>
       </c>
-      <c r="D78" s="7">
+      <c r="D78" s="5">
         <v>394</v>
       </c>
-      <c r="E78" s="7">
+      <c r="E78" s="5">
         <v>3972</v>
       </c>
     </row>
-    <row r="79" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="12"/>
-      <c r="B79" s="7">
+    <row r="79" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="9"/>
+      <c r="B79" s="5">
         <v>2</v>
       </c>
       <c r="C79" s="2">
         <v>2283529.7250000001</v>
       </c>
-      <c r="D79" s="7">
+      <c r="D79" s="5">
         <v>391</v>
       </c>
-      <c r="E79" s="7">
+      <c r="E79" s="5">
         <v>3942</v>
       </c>
     </row>
-    <row r="80" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="12"/>
-      <c r="B80" s="7">
+    <row r="80" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="9"/>
+      <c r="B80" s="5">
         <v>3</v>
       </c>
       <c r="C80" s="2">
         <v>2283897.2949999999</v>
       </c>
-      <c r="D80" s="7">
+      <c r="D80" s="5">
         <v>389</v>
       </c>
-      <c r="E80" s="7">
+      <c r="E80" s="5">
         <v>3922</v>
       </c>
     </row>
-    <row r="81" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="12"/>
-      <c r="B81" s="7">
+    <row r="81" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="9"/>
+      <c r="B81" s="5">
         <v>4</v>
       </c>
       <c r="C81" s="2">
         <v>2284199.091</v>
       </c>
-      <c r="D81" s="7">
+      <c r="D81" s="5">
         <v>376</v>
       </c>
-      <c r="E81" s="7">
+      <c r="E81" s="5">
         <v>3792</v>
       </c>
     </row>
-    <row r="82" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="12"/>
-      <c r="B82" s="7">
+    <row r="82" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="9"/>
+      <c r="B82" s="5">
         <v>5</v>
       </c>
       <c r="C82" s="2">
         <v>2284055.0950000002</v>
       </c>
-      <c r="D82" s="7">
+      <c r="D82" s="5">
         <v>390</v>
       </c>
-      <c r="E82" s="7">
+      <c r="E82" s="5">
         <v>3932</v>
       </c>
     </row>
-    <row r="83" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="12"/>
-      <c r="B83" s="7">
+    <row r="83" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="9"/>
+      <c r="B83" s="5">
         <v>6</v>
       </c>
       <c r="C83" s="2">
         <v>2283981.2719999999</v>
       </c>
-      <c r="D83" s="7">
+      <c r="D83" s="5">
         <v>392</v>
       </c>
-      <c r="E83" s="7">
+      <c r="E83" s="5">
         <v>3952</v>
       </c>
     </row>
-    <row r="84" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="12"/>
-      <c r="B84" s="7">
+    <row r="84" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="9"/>
+      <c r="B84" s="5">
         <v>7</v>
       </c>
       <c r="C84" s="2">
         <v>2283894.477</v>
       </c>
-      <c r="D84" s="7">
+      <c r="D84" s="5">
         <v>396</v>
       </c>
-      <c r="E84" s="7">
+      <c r="E84" s="5">
         <v>3992</v>
       </c>
     </row>
-    <row r="85" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="12"/>
-      <c r="B85" s="7">
+    <row r="85" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="9"/>
+      <c r="B85" s="5">
         <v>8</v>
       </c>
       <c r="C85" s="2">
         <v>2283940.8289999999</v>
       </c>
-      <c r="D85" s="7">
+      <c r="D85" s="5">
         <v>383</v>
       </c>
-      <c r="E85" s="7">
+      <c r="E85" s="5">
         <v>3862</v>
       </c>
     </row>
-    <row r="86" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="12"/>
-      <c r="B86" s="7">
+    <row r="86" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="9"/>
+      <c r="B86" s="5">
         <v>9</v>
       </c>
       <c r="C86" s="2">
         <v>2283789.2829999998</v>
       </c>
-      <c r="D86" s="7">
+      <c r="D86" s="5">
         <v>384</v>
       </c>
-      <c r="E86" s="7">
+      <c r="E86" s="5">
         <v>3872</v>
       </c>
     </row>
-    <row r="87" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="12"/>
-      <c r="B87" s="7">
+    <row r="87" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="9"/>
+      <c r="B87" s="5">
         <v>10</v>
       </c>
       <c r="C87" s="2">
         <v>2284433.06</v>
       </c>
-      <c r="D87" s="7">
+      <c r="D87" s="5">
         <v>386</v>
       </c>
-      <c r="E87" s="7">
+      <c r="E87" s="5">
         <v>3892</v>
       </c>
     </row>
-    <row r="88" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="12"/>
-      <c r="B88" s="7">
+    <row r="88" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="9"/>
+      <c r="B88" s="5">
         <v>11</v>
       </c>
       <c r="C88" s="2">
         <v>2284138.753</v>
       </c>
-      <c r="D88" s="7">
+      <c r="D88" s="5">
         <v>391</v>
       </c>
-      <c r="E88" s="7">
+      <c r="E88" s="5">
         <v>3942</v>
       </c>
     </row>
-    <row r="89" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="12"/>
-      <c r="B89" s="7">
+    <row r="89" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="9"/>
+      <c r="B89" s="5">
         <v>12</v>
       </c>
       <c r="C89" s="2">
         <v>2283599.0410000002</v>
       </c>
-      <c r="D89" s="7">
+      <c r="D89" s="5">
         <v>373</v>
       </c>
-      <c r="E89" s="7">
+      <c r="E89" s="5">
         <v>3762</v>
       </c>
     </row>
-    <row r="90" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="12"/>
-      <c r="B90" s="7">
+    <row r="90" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="9"/>
+      <c r="B90" s="5">
         <v>13</v>
       </c>
       <c r="C90" s="2">
         <v>2284010.7829999998</v>
       </c>
-      <c r="D90" s="7">
+      <c r="D90" s="5">
         <v>388</v>
       </c>
-      <c r="E90" s="7">
+      <c r="E90" s="5">
         <v>3912</v>
       </c>
     </row>
-    <row r="91" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="12"/>
-      <c r="B91" s="7">
+    <row r="91" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="9"/>
+      <c r="B91" s="5">
         <v>14</v>
       </c>
       <c r="C91" s="2">
         <v>2283572.0780000002</v>
       </c>
-      <c r="D91" s="7">
+      <c r="D91" s="5">
         <v>395</v>
       </c>
-      <c r="E91" s="7">
+      <c r="E91" s="5">
         <v>3982</v>
       </c>
     </row>
-    <row r="92" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="12"/>
-      <c r="B92" s="7">
+    <row r="92" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="9"/>
+      <c r="B92" s="5">
         <v>15</v>
       </c>
       <c r="C92" s="2">
         <v>2283988.0180000002</v>
       </c>
-      <c r="D92" s="7">
+      <c r="D92" s="5">
         <v>394</v>
       </c>
-      <c r="E92" s="7">
+      <c r="E92" s="5">
         <v>3972</v>
       </c>
     </row>
-    <row r="93" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="12"/>
-      <c r="B93" s="7">
+    <row r="93" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="9"/>
+      <c r="B93" s="5">
         <v>16</v>
       </c>
       <c r="C93" s="2">
         <v>2283474.662</v>
       </c>
-      <c r="D93" s="7">
+      <c r="D93" s="5">
         <v>376</v>
       </c>
-      <c r="E93" s="7">
+      <c r="E93" s="5">
         <v>3792</v>
       </c>
     </row>
-    <row r="94" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="12"/>
-      <c r="B94" s="7">
+    <row r="94" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="9"/>
+      <c r="B94" s="5">
         <v>17</v>
       </c>
       <c r="C94" s="2">
         <v>2283828.1409999998</v>
       </c>
-      <c r="D94" s="7">
+      <c r="D94" s="5">
         <v>401</v>
       </c>
-      <c r="E94" s="7">
+      <c r="E94" s="5">
         <v>4042</v>
       </c>
     </row>
-    <row r="95" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="12"/>
-      <c r="B95" s="7">
+    <row r="95" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="9"/>
+      <c r="B95" s="5">
         <v>18</v>
       </c>
       <c r="C95" s="2">
         <v>2283663.2599999998</v>
       </c>
-      <c r="D95" s="7">
+      <c r="D95" s="5">
         <v>384</v>
       </c>
-      <c r="E95" s="7">
+      <c r="E95" s="5">
         <v>3872</v>
       </c>
     </row>
-    <row r="96" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="12"/>
-      <c r="B96" s="7">
+    <row r="96" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="9"/>
+      <c r="B96" s="5">
         <v>19</v>
       </c>
       <c r="C96" s="2">
         <v>2283919.497</v>
       </c>
-      <c r="D96" s="7">
+      <c r="D96" s="5">
         <v>392</v>
       </c>
-      <c r="E96" s="7">
+      <c r="E96" s="5">
         <v>3952</v>
       </c>
     </row>
-    <row r="97" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="12"/>
-      <c r="B97" s="7">
+    <row r="97" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="9"/>
+      <c r="B97" s="5">
         <v>20</v>
       </c>
       <c r="C97" s="2">
         <v>2283948.6669999999</v>
       </c>
-      <c r="D97" s="7">
+      <c r="D97" s="5">
         <v>388</v>
       </c>
-      <c r="E97" s="7">
+      <c r="E97" s="5">
         <v>3912</v>
       </c>
     </row>
-    <row r="98" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="12"/>
-      <c r="B98" s="7">
+    <row r="98" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="9"/>
+      <c r="B98" s="5">
         <v>21</v>
       </c>
       <c r="C98" s="2">
         <v>2284087.5120000001</v>
       </c>
-      <c r="D98" s="7">
+      <c r="D98" s="5">
         <v>397</v>
       </c>
-      <c r="E98" s="7">
+      <c r="E98" s="5">
         <v>4002</v>
       </c>
     </row>
-    <row r="99" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="12"/>
-      <c r="B99" s="7">
+    <row r="99" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="9"/>
+      <c r="B99" s="5">
         <v>22</v>
       </c>
       <c r="C99" s="2">
         <v>2283832.8629999999</v>
       </c>
-      <c r="D99" s="7">
+      <c r="D99" s="5">
         <v>392</v>
       </c>
-      <c r="E99" s="7">
+      <c r="E99" s="5">
         <v>3952</v>
       </c>
     </row>
-    <row r="100" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="12"/>
-      <c r="B100" s="7">
+    <row r="100" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="9"/>
+      <c r="B100" s="5">
         <v>23</v>
       </c>
       <c r="C100" s="2">
         <v>2283849.2089999998</v>
       </c>
-      <c r="D100" s="7">
+      <c r="D100" s="5">
         <v>408</v>
       </c>
-      <c r="E100" s="7">
+      <c r="E100" s="5">
         <v>4112</v>
       </c>
     </row>
-    <row r="101" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="12"/>
-      <c r="B101" s="7">
+    <row r="101" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="9"/>
+      <c r="B101" s="5">
         <v>24</v>
       </c>
       <c r="C101" s="2">
         <v>2283790.2009999999</v>
       </c>
-      <c r="D101" s="7">
+      <c r="D101" s="5">
         <v>404</v>
       </c>
-      <c r="E101" s="7">
+      <c r="E101" s="5">
         <v>4072</v>
       </c>
     </row>
-    <row r="102" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="6" t="s">
+    <row r="102" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B102" s="7">
+      <c r="B102" s="5">
         <v>0</v>
       </c>
       <c r="C102" s="2">
         <v>5919094.8200000003</v>
       </c>
-      <c r="D102" s="7">
+      <c r="D102" s="5">
         <v>433</v>
       </c>
-      <c r="E102" s="7">
+      <c r="E102" s="5">
         <v>4538</v>
       </c>
     </row>
-    <row r="103" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="12"/>
-      <c r="B103" s="7">
+    <row r="103" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="9"/>
+      <c r="B103" s="5">
         <v>1</v>
       </c>
       <c r="C103" s="2">
         <v>5917471.7070000004</v>
       </c>
-      <c r="D103" s="7">
+      <c r="D103" s="5">
         <v>440</v>
       </c>
-      <c r="E103" s="7">
+      <c r="E103" s="5">
         <v>4608</v>
       </c>
     </row>
-    <row r="104" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="12"/>
-      <c r="B104" s="7">
+    <row r="104" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="9"/>
+      <c r="B104" s="5">
         <v>2</v>
       </c>
       <c r="C104" s="2">
         <v>5918409.9249999998</v>
       </c>
-      <c r="D104" s="7">
+      <c r="D104" s="5">
         <v>444</v>
       </c>
-      <c r="E104" s="7">
+      <c r="E104" s="5">
         <v>4648</v>
       </c>
     </row>
-    <row r="105" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="12"/>
-      <c r="B105" s="7">
+    <row r="105" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="9"/>
+      <c r="B105" s="5">
         <v>3</v>
       </c>
       <c r="C105" s="2">
         <v>5919179.9210000001</v>
       </c>
-      <c r="D105" s="7">
+      <c r="D105" s="5">
         <v>434</v>
       </c>
-      <c r="E105" s="7">
+      <c r="E105" s="5">
         <v>4548</v>
       </c>
     </row>
-    <row r="106" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="12"/>
-      <c r="B106" s="7">
+    <row r="106" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="9"/>
+      <c r="B106" s="5">
         <v>4</v>
       </c>
       <c r="C106" s="2">
         <v>5917963.0959999999</v>
       </c>
-      <c r="D106" s="7">
+      <c r="D106" s="5">
         <v>435</v>
       </c>
-      <c r="E106" s="7">
+      <c r="E106" s="5">
         <v>4558</v>
       </c>
     </row>
-    <row r="107" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="12"/>
-      <c r="B107" s="7">
+    <row r="107" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="9"/>
+      <c r="B107" s="5">
         <v>5</v>
       </c>
       <c r="C107" s="2">
         <v>5917916.8540000003</v>
       </c>
-      <c r="D107" s="7">
+      <c r="D107" s="5">
         <v>435</v>
       </c>
-      <c r="E107" s="7">
+      <c r="E107" s="5">
         <v>4558</v>
       </c>
     </row>
-    <row r="108" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="12"/>
-      <c r="B108" s="7">
+    <row r="108" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="9"/>
+      <c r="B108" s="5">
         <v>6</v>
       </c>
       <c r="C108" s="2">
         <v>5917056.3339999998</v>
       </c>
-      <c r="D108" s="7">
+      <c r="D108" s="5">
         <v>444</v>
       </c>
-      <c r="E108" s="7">
+      <c r="E108" s="5">
         <v>4648</v>
       </c>
     </row>
-    <row r="109" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="12"/>
-      <c r="B109" s="7">
+    <row r="109" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="9"/>
+      <c r="B109" s="5">
         <v>7</v>
       </c>
       <c r="C109" s="2">
         <v>5917781.1699999999</v>
       </c>
-      <c r="D109" s="7">
+      <c r="D109" s="5">
         <v>438</v>
       </c>
-      <c r="E109" s="7">
+      <c r="E109" s="5">
         <v>4588</v>
       </c>
     </row>
-    <row r="110" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="12"/>
-      <c r="B110" s="7">
+    <row r="110" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="9"/>
+      <c r="B110" s="5">
         <v>8</v>
       </c>
       <c r="C110" s="2">
         <v>5917715.7640000004</v>
       </c>
-      <c r="D110" s="7">
+      <c r="D110" s="5">
         <v>417</v>
       </c>
-      <c r="E110" s="7">
+      <c r="E110" s="5">
         <v>4378</v>
       </c>
     </row>
-    <row r="111" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="12"/>
-      <c r="B111" s="7">
+    <row r="111" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="9"/>
+      <c r="B111" s="5">
         <v>9</v>
       </c>
       <c r="C111" s="2">
         <v>5918091.4029999999</v>
       </c>
-      <c r="D111" s="7">
+      <c r="D111" s="5">
         <v>431</v>
       </c>
-      <c r="E111" s="7">
+      <c r="E111" s="5">
         <v>4518</v>
       </c>
     </row>
-    <row r="112" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="12"/>
-      <c r="B112" s="7">
+    <row r="112" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="9"/>
+      <c r="B112" s="5">
         <v>10</v>
       </c>
       <c r="C112" s="2">
         <v>5917866.8909999998</v>
       </c>
-      <c r="D112" s="7">
+      <c r="D112" s="5">
         <v>438</v>
       </c>
-      <c r="E112" s="7">
+      <c r="E112" s="5">
         <v>4588</v>
       </c>
     </row>
-    <row r="113" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="12"/>
-      <c r="B113" s="7">
+    <row r="113" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="9"/>
+      <c r="B113" s="5">
         <v>11</v>
       </c>
       <c r="C113" s="2">
         <v>5917806.8820000002</v>
       </c>
-      <c r="D113" s="7">
+      <c r="D113" s="5">
         <v>449</v>
       </c>
-      <c r="E113" s="7">
+      <c r="E113" s="5">
         <v>4698</v>
       </c>
     </row>
-    <row r="114" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="12"/>
-      <c r="B114" s="7">
+    <row r="114" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="9"/>
+      <c r="B114" s="5">
         <v>12</v>
       </c>
       <c r="C114" s="2">
         <v>5917763.0729999999</v>
       </c>
-      <c r="D114" s="7">
+      <c r="D114" s="5">
         <v>428</v>
       </c>
-      <c r="E114" s="7">
+      <c r="E114" s="5">
         <v>4488</v>
       </c>
     </row>
-    <row r="115" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="12"/>
-      <c r="B115" s="7">
+    <row r="115" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="9"/>
+      <c r="B115" s="5">
         <v>13</v>
       </c>
       <c r="C115" s="2">
         <v>5918442.0300000003</v>
       </c>
-      <c r="D115" s="7">
+      <c r="D115" s="5">
         <v>435</v>
       </c>
-      <c r="E115" s="7">
+      <c r="E115" s="5">
         <v>4558</v>
       </c>
     </row>
-    <row r="116" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="12"/>
-      <c r="B116" s="7">
+    <row r="116" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="9"/>
+      <c r="B116" s="5">
         <v>14</v>
       </c>
       <c r="C116" s="2">
         <v>5918953.3530000001</v>
       </c>
-      <c r="D116" s="7">
+      <c r="D116" s="5">
         <v>430</v>
       </c>
-      <c r="E116" s="7">
+      <c r="E116" s="5">
         <v>4508</v>
       </c>
     </row>
-    <row r="117" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="12"/>
-      <c r="B117" s="7">
+    <row r="117" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="9"/>
+      <c r="B117" s="5">
         <v>15</v>
       </c>
       <c r="C117" s="2">
         <v>5918645.4119999995</v>
       </c>
-      <c r="D117" s="7">
+      <c r="D117" s="5">
         <v>435</v>
       </c>
-      <c r="E117" s="7">
+      <c r="E117" s="5">
         <v>4558</v>
       </c>
     </row>
-    <row r="118" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="12"/>
-      <c r="B118" s="7">
+    <row r="118" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="9"/>
+      <c r="B118" s="5">
         <v>16</v>
       </c>
       <c r="C118" s="2">
         <v>5918129.2850000001</v>
       </c>
-      <c r="D118" s="7">
+      <c r="D118" s="5">
         <v>446</v>
       </c>
-      <c r="E118" s="7">
+      <c r="E118" s="5">
         <v>4668</v>
       </c>
     </row>
-    <row r="119" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="12"/>
-      <c r="B119" s="7">
+    <row r="119" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="9"/>
+      <c r="B119" s="5">
         <v>17</v>
       </c>
       <c r="C119" s="2">
         <v>5917735.4929999998</v>
       </c>
-      <c r="D119" s="7">
+      <c r="D119" s="5">
         <v>423</v>
       </c>
-      <c r="E119" s="7">
+      <c r="E119" s="5">
         <v>4438</v>
       </c>
     </row>
-    <row r="120" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="12"/>
-      <c r="B120" s="7">
+    <row r="120" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="9"/>
+      <c r="B120" s="5">
         <v>18</v>
       </c>
       <c r="C120" s="2">
         <v>5917687.517</v>
       </c>
-      <c r="D120" s="7">
+      <c r="D120" s="5">
         <v>454</v>
       </c>
-      <c r="E120" s="7">
+      <c r="E120" s="5">
         <v>4748</v>
       </c>
     </row>
-    <row r="121" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="12"/>
-      <c r="B121" s="7">
+    <row r="121" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="9"/>
+      <c r="B121" s="5">
         <v>19</v>
       </c>
       <c r="C121" s="2">
         <v>5916938.0460000001</v>
       </c>
-      <c r="D121" s="7">
+      <c r="D121" s="5">
         <v>435</v>
       </c>
-      <c r="E121" s="7">
+      <c r="E121" s="5">
         <v>4558</v>
       </c>
     </row>
-    <row r="122" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="12"/>
-      <c r="B122" s="7">
+    <row r="122" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="9"/>
+      <c r="B122" s="5">
         <v>20</v>
       </c>
       <c r="C122" s="2">
         <v>5919662.8660000004</v>
       </c>
-      <c r="D122" s="7">
+      <c r="D122" s="5">
         <v>424</v>
       </c>
-      <c r="E122" s="7">
+      <c r="E122" s="5">
         <v>4448</v>
       </c>
     </row>
-    <row r="123" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="12"/>
-      <c r="B123" s="7">
+    <row r="123" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="9"/>
+      <c r="B123" s="5">
         <v>21</v>
       </c>
       <c r="C123" s="2">
         <v>5918380.2309999997</v>
       </c>
-      <c r="D123" s="7">
+      <c r="D123" s="5">
         <v>438</v>
       </c>
-      <c r="E123" s="7">
+      <c r="E123" s="5">
         <v>4588</v>
       </c>
     </row>
-    <row r="124" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="12"/>
-      <c r="B124" s="7">
+    <row r="124" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="9"/>
+      <c r="B124" s="5">
         <v>22</v>
       </c>
       <c r="C124" s="2">
         <v>5918187.824</v>
       </c>
-      <c r="D124" s="7">
+      <c r="D124" s="5">
         <v>436</v>
       </c>
-      <c r="E124" s="7">
+      <c r="E124" s="5">
         <v>4568</v>
       </c>
     </row>
-    <row r="125" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="12"/>
-      <c r="B125" s="7">
+    <row r="125" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="9"/>
+      <c r="B125" s="5">
         <v>23</v>
       </c>
       <c r="C125" s="2">
         <v>5918583.3039999995</v>
       </c>
-      <c r="D125" s="7">
+      <c r="D125" s="5">
         <v>430</v>
       </c>
-      <c r="E125" s="7">
+      <c r="E125" s="5">
         <v>4508</v>
       </c>
     </row>
-    <row r="126" spans="1:5" s="11" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="13"/>
-      <c r="B126" s="8">
+    <row r="126" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="10"/>
+      <c r="B126" s="6">
         <v>24</v>
       </c>
       <c r="C126" s="3">
         <v>5917744.8439999996</v>
       </c>
-      <c r="D126" s="8">
+      <c r="D126" s="6">
         <v>443</v>
       </c>
-      <c r="E126" s="8">
+      <c r="E126" s="6">
         <v>4638</v>
       </c>
     </row>
@@ -3003,149 +3087,149 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.83203125" customWidth="1"/>
-    <col min="2" max="3" width="20.83203125" customWidth="1"/>
-    <col min="4" max="7" width="14.83203125" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" customWidth="1"/>
+    <col min="2" max="3" width="15.83203125" customWidth="1"/>
+    <col min="4" max="7" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="11" t="s">
         <v>30</v>
       </c>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="13">
         <v>465241</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="13">
         <v>1143</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="13">
         <v>10</v>
       </c>
-      <c r="G2" s="7"/>
+      <c r="G2" s="13"/>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="13">
         <v>539526</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="13">
         <v>1537</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="13">
         <v>33</v>
       </c>
-      <c r="G3" s="7"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="13">
         <v>235232</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="13">
         <v>999</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="13">
         <v>55</v>
       </c>
-      <c r="G4" s="7"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="13">
         <v>599627</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="13">
         <v>1479</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="13">
         <v>18</v>
       </c>
-      <c r="G5" s="7"/>
+      <c r="G5" s="13"/>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="15">
         <v>375172</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="15">
         <v>515</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="15">
         <v>106</v>
       </c>
-      <c r="G6" s="8"/>
+      <c r="G6" s="15"/>
       <c r="H6" s="1"/>
     </row>
   </sheetData>

--- a/figures/tables/Tables.xlsx
+++ b/figures/tables/Tables.xlsx
@@ -9,12 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="3600" windowWidth="22060" windowHeight="9660" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="PF-emp" sheetId="2" r:id="rId1"/>
     <sheet name="PF-sim" sheetId="3" r:id="rId2"/>
     <sheet name="datasets" sheetId="4" r:id="rId3"/>
+    <sheet name="metrics" sheetId="5" r:id="rId4"/>
+    <sheet name="wds" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="48">
   <si>
     <t>AICc</t>
   </si>
@@ -125,13 +127,61 @@
   </si>
   <si>
     <t>UCE paper</t>
+  </si>
+  <si>
+    <t>Crawford</t>
+  </si>
+  <si>
+    <t>McCormack</t>
+  </si>
+  <si>
+    <t>Harrington</t>
+  </si>
+  <si>
+    <t>Meiklejohn</t>
+  </si>
+  <si>
+    <t>Moyle</t>
+  </si>
+  <si>
+    <t>0verall</t>
+  </si>
+  <si>
+    <t>EN (means)</t>
+  </si>
+  <si>
+    <t>GC (means)</t>
+  </si>
+  <si>
+    <t>edges windows</t>
+  </si>
+  <si>
+    <t>center windows</t>
+  </si>
+  <si>
+    <t>EN window sizes (mean)</t>
+  </si>
+  <si>
+    <t>GC window sizes (mean)</t>
+  </si>
+  <si>
+    <t>MU window sizes (mean)</t>
+  </si>
+  <si>
+    <t>Datasets</t>
+  </si>
+  <si>
+    <t>Overall</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -171,26 +221,41 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <charset val="161"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <charset val="161"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <charset val="161"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <charset val="161"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
     </font>
   </fonts>
   <fills count="2">
@@ -201,7 +266,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -229,8 +294,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -238,8 +312,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -310,14 +388,94 @@
     <xf numFmtId="2" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -595,7 +753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E36"/>
     </sheetView>
   </sheetViews>
@@ -1166,7 +1324,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A126"/>
     </sheetView>
   </sheetViews>
@@ -3088,7 +3246,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3235,4 +3393,464 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView zoomScale="96" zoomScaleNormal="96" zoomScalePageLayoutView="96" workbookViewId="0">
+      <selection activeCell="H10" sqref="A1:H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.33203125" style="32" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="14" style="32" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="32"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+    </row>
+    <row r="2" spans="1:8" s="12" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="47" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="12" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="42"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="30"/>
+    </row>
+    <row r="4" spans="1:8" s="12" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="25">
+        <v>0.12859999999999999</v>
+      </c>
+      <c r="D4" s="25">
+        <v>5.6439999999999997E-2</v>
+      </c>
+      <c r="E4" s="25">
+        <v>0.186</v>
+      </c>
+      <c r="F4" s="25">
+        <v>3.091E-2</v>
+      </c>
+      <c r="G4" s="25">
+        <v>8.974E-2</v>
+      </c>
+      <c r="H4" s="25">
+        <v>8.4080000000000002E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="12" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="25">
+        <v>7.1760000000000004E-2</v>
+      </c>
+      <c r="D5" s="25">
+        <v>3.0980000000000001E-2</v>
+      </c>
+      <c r="E5" s="25">
+        <v>8.9700000000000002E-2</v>
+      </c>
+      <c r="F5" s="25">
+        <v>1.5429999999999999E-2</v>
+      </c>
+      <c r="G5" s="25">
+        <v>5.3519999999999998E-2</v>
+      </c>
+      <c r="H5" s="25">
+        <v>4.5330000000000002E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="12" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="31"/>
+      <c r="B6" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="25">
+        <v>0.17449999999999999</v>
+      </c>
+      <c r="D6" s="25">
+        <v>7.5160000000000005E-2</v>
+      </c>
+      <c r="E6" s="25">
+        <v>0.2727</v>
+      </c>
+      <c r="F6" s="25">
+        <v>4.4350000000000001E-2</v>
+      </c>
+      <c r="G6" s="25">
+        <v>0.11169999999999999</v>
+      </c>
+      <c r="H6" s="25">
+        <v>0.1142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="12" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="43"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+    </row>
+    <row r="8" spans="1:8" s="12" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="26">
+        <v>34.24</v>
+      </c>
+      <c r="D8" s="26">
+        <v>30.23</v>
+      </c>
+      <c r="E8" s="26">
+        <v>41.99</v>
+      </c>
+      <c r="F8" s="26">
+        <v>39.08</v>
+      </c>
+      <c r="G8" s="26">
+        <v>37.369999999999997</v>
+      </c>
+      <c r="H8" s="26">
+        <v>35.93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="12" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="13">
+        <v>41.02</v>
+      </c>
+      <c r="D9" s="13">
+        <v>34.090000000000003</v>
+      </c>
+      <c r="E9" s="13">
+        <v>46.68</v>
+      </c>
+      <c r="F9" s="13">
+        <v>43.38</v>
+      </c>
+      <c r="G9" s="13">
+        <v>44.38</v>
+      </c>
+      <c r="H9" s="26">
+        <v>41.33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="12" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="27">
+        <v>31.19</v>
+      </c>
+      <c r="D10" s="15">
+        <v>28.59</v>
+      </c>
+      <c r="E10" s="15">
+        <v>40.29</v>
+      </c>
+      <c r="F10" s="15">
+        <v>36.36</v>
+      </c>
+      <c r="G10" s="15">
+        <v>33.56</v>
+      </c>
+      <c r="H10" s="28">
+        <v>33.26</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H11" sqref="A2:H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" customWidth="1"/>
+    <col min="3" max="8" width="13.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+    </row>
+    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="34"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="44"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="37"/>
+    </row>
+    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="40"/>
+      <c r="B4" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="35">
+        <v>181.7039</v>
+      </c>
+      <c r="D4" s="35">
+        <v>148.39259999999999</v>
+      </c>
+      <c r="E4" s="35">
+        <v>187.01169999999999</v>
+      </c>
+      <c r="F4" s="35">
+        <v>188.3056</v>
+      </c>
+      <c r="G4" s="35">
+        <v>275.07569999999998</v>
+      </c>
+      <c r="H4" s="38">
+        <v>220.6816</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="40"/>
+      <c r="B5" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="35">
+        <v>224.62010000000001</v>
+      </c>
+      <c r="D5" s="35">
+        <v>201.7216</v>
+      </c>
+      <c r="E5" s="35">
+        <v>207.6728</v>
+      </c>
+      <c r="F5" s="35">
+        <v>217.1217</v>
+      </c>
+      <c r="G5" s="35">
+        <v>453.41359999999997</v>
+      </c>
+      <c r="H5" s="38">
+        <v>284.05810000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="45"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="38"/>
+    </row>
+    <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="40"/>
+      <c r="B7" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="35">
+        <v>125.9284</v>
+      </c>
+      <c r="D7" s="35">
+        <v>104.69759999999999</v>
+      </c>
+      <c r="E7" s="35">
+        <v>105.1913</v>
+      </c>
+      <c r="F7" s="35">
+        <v>156.785</v>
+      </c>
+      <c r="G7" s="35">
+        <v>256.71460000000002</v>
+      </c>
+      <c r="H7" s="38">
+        <v>166.89019999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="40"/>
+      <c r="B8" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="35">
+        <v>280.3956</v>
+      </c>
+      <c r="D8" s="35">
+        <v>245.41659999999999</v>
+      </c>
+      <c r="E8" s="35">
+        <v>289.49329999999998</v>
+      </c>
+      <c r="F8" s="35">
+        <v>248.64230000000001</v>
+      </c>
+      <c r="G8" s="35">
+        <v>471.77480000000003</v>
+      </c>
+      <c r="H8" s="38">
+        <v>337.84960000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="45"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="38"/>
+    </row>
+    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="40"/>
+      <c r="B10" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="35">
+        <v>205.15199999999999</v>
+      </c>
+      <c r="D10" s="35">
+        <v>180.4452</v>
+      </c>
+      <c r="E10" s="35">
+        <v>207.9564</v>
+      </c>
+      <c r="F10" s="35">
+        <v>247.7329</v>
+      </c>
+      <c r="G10" s="35">
+        <v>481.04270000000002</v>
+      </c>
+      <c r="H10" s="38">
+        <v>285.10509999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="41"/>
+      <c r="B11" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="36">
+        <v>201.1721</v>
+      </c>
+      <c r="D11" s="36">
+        <v>169.66900000000001</v>
+      </c>
+      <c r="E11" s="36">
+        <v>186.72819999999999</v>
+      </c>
+      <c r="F11" s="36">
+        <v>157.6944</v>
+      </c>
+      <c r="G11" s="36">
+        <v>247.44659999999999</v>
+      </c>
+      <c r="H11" s="39">
+        <v>219.63470000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/figures/tables/Tables.xlsx
+++ b/figures/tables/Tables.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="1920" yWindow="460" windowWidth="25600" windowHeight="14520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="PF-emp" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="53">
   <si>
     <t>AICc</t>
   </si>
@@ -153,25 +153,50 @@
     <t>GC (means)</t>
   </si>
   <si>
-    <t>edges windows</t>
-  </si>
-  <si>
-    <t>center windows</t>
-  </si>
-  <si>
-    <t>EN window sizes (mean)</t>
-  </si>
-  <si>
-    <t>GC window sizes (mean)</t>
-  </si>
-  <si>
-    <t>MU window sizes (mean)</t>
-  </si>
-  <si>
     <t>Datasets</t>
   </si>
   <si>
-    <t>Overall</t>
+    <t xml:space="preserve">SWSC-EN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SWSC-GC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SWSC-MU </t>
+  </si>
+  <si>
+    <r>
+      <t>Overall</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>wd size (mean)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">left </t>
+  </si>
+  <si>
+    <t xml:space="preserve">center </t>
+  </si>
+  <si>
+    <t xml:space="preserve">right </t>
+  </si>
+  <si>
+    <t>∆ AICc</t>
+  </si>
+  <si>
+    <t>Dataset</t>
+  </si>
+  <si>
+    <t>Partition strategy</t>
   </si>
 </sst>
 </file>
@@ -181,7 +206,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -228,25 +253,6 @@
       <name val="Times New Roman"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
@@ -257,6 +263,30 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -266,7 +296,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -303,8 +333,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -316,8 +375,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -364,46 +429,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -416,28 +454,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -446,36 +472,97 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -751,567 +838,677 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E36"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F36" sqref="A1:F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="12.83203125" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="12.83203125" style="23" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="16" t="s">
+    <row r="1" spans="1:6" s="32" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:6" s="32" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="17">
         <v>2481257.253</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="51">
+        <v>-100298.83</v>
+      </c>
+      <c r="E2" s="13">
         <v>1</v>
       </c>
-      <c r="E2" s="18">
+      <c r="F2" s="13">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17" t="s">
+    <row r="3" spans="1:6" s="32" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="25"/>
+      <c r="B3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="17">
         <v>2458688.9500000002</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="51">
+        <v>-77730.53</v>
+      </c>
+      <c r="E3" s="13">
         <v>85</v>
       </c>
-      <c r="E3" s="18">
+      <c r="F3" s="13">
         <v>866</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17" t="s">
+    <row r="4" spans="1:6" s="32" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="25"/>
+      <c r="B4" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="17">
         <v>2467719.0279999999</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="51">
+        <v>-86760.61</v>
+      </c>
+      <c r="E4" s="13">
         <v>1145</v>
       </c>
-      <c r="E4" s="18">
+      <c r="F4" s="13">
         <v>11466</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17" t="s">
+    <row r="5" spans="1:6" s="32" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="25"/>
+      <c r="B5" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="17">
         <v>2456062.6209999998</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="51">
+        <v>-75104.2</v>
+      </c>
+      <c r="E5" s="13">
         <v>222</v>
       </c>
-      <c r="E5" s="18">
+      <c r="F5" s="13">
         <v>2236</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17" t="s">
+    <row r="6" spans="1:6" s="32" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="25"/>
+      <c r="B6" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="17">
         <v>2410728.4369999999</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="51">
+        <v>-29770.02</v>
+      </c>
+      <c r="E6" s="13">
         <v>456</v>
       </c>
-      <c r="E6" s="18">
+      <c r="F6" s="13">
         <v>4576</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17" t="s">
+    <row r="7" spans="1:6" s="32" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="25"/>
+      <c r="B7" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="17">
         <v>2397171.3229999999</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="51">
+        <v>-16212.9</v>
+      </c>
+      <c r="E7" s="13">
         <v>461</v>
       </c>
-      <c r="E7" s="18">
+      <c r="F7" s="13">
         <v>4626</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17" t="s">
+    <row r="8" spans="1:6" s="32" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="25"/>
+      <c r="B8" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="53">
         <v>2380958.4180000001</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="52">
+        <v>0</v>
+      </c>
+      <c r="E8" s="13">
         <v>452</v>
       </c>
-      <c r="E8" s="18">
+      <c r="F8" s="13">
         <v>4536</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="17" t="s">
+    <row r="9" spans="1:6" s="32" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="17">
         <v>3192533.0189999999</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="51">
+        <v>-137222.82999999999</v>
+      </c>
+      <c r="E9" s="13">
         <v>1</v>
       </c>
-      <c r="E9" s="18">
+      <c r="F9" s="13">
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17" t="s">
+    <row r="10" spans="1:6" s="32" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="25"/>
+      <c r="B10" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="17">
         <v>3166285.986</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="51">
+        <v>-110975.8</v>
+      </c>
+      <c r="E10" s="13">
         <v>101</v>
       </c>
-      <c r="E10" s="18">
+      <c r="F10" s="13">
         <v>1072</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17" t="s">
+    <row r="11" spans="1:6" s="32" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="25"/>
+      <c r="B11" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="17">
         <v>3162976.03</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="51">
+        <v>-107665.84</v>
+      </c>
+      <c r="E11" s="13">
         <v>1541</v>
       </c>
-      <c r="E11" s="18">
+      <c r="F11" s="13">
         <v>15472</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17" t="s">
+    <row r="12" spans="1:6" s="32" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="25"/>
+      <c r="B12" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="17">
         <v>3147457.96</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="51">
+        <v>-92147.77</v>
+      </c>
+      <c r="E12" s="13">
         <v>318</v>
       </c>
-      <c r="E12" s="18">
+      <c r="F12" s="13">
         <v>3242</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17" t="s">
+    <row r="13" spans="1:6" s="32" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="25"/>
+      <c r="B13" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="17">
         <v>3088673.338</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="51">
+        <v>-33363.15</v>
+      </c>
+      <c r="E13" s="13">
         <v>615</v>
       </c>
-      <c r="E13" s="18">
+      <c r="F13" s="13">
         <v>6212</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17" t="s">
+    <row r="14" spans="1:6" s="32" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="25"/>
+      <c r="B14" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="17">
         <v>3094082.2310000001</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="51">
+        <v>-38772.04</v>
+      </c>
+      <c r="E14" s="13">
         <v>638</v>
       </c>
-      <c r="E14" s="18">
+      <c r="F14" s="13">
         <v>6442</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17" t="s">
+    <row r="15" spans="1:6" s="32" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="25"/>
+      <c r="B15" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C15" s="53">
         <v>3055310.19</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="52">
+        <v>0</v>
+      </c>
+      <c r="E15" s="13">
         <v>586</v>
       </c>
-      <c r="E15" s="18">
+      <c r="F15" s="13">
         <v>5922</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="17" t="s">
+    <row r="16" spans="1:6" s="32" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="17">
         <v>3833182.3650000002</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="51">
+        <v>-145227.91</v>
+      </c>
+      <c r="E16" s="13">
         <v>1</v>
       </c>
-      <c r="E16" s="18">
+      <c r="F16" s="13">
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17" t="s">
+    <row r="17" spans="1:6" s="32" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="25"/>
+      <c r="B17" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="17">
         <v>3800797.49</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="51">
+        <v>-112843.03</v>
+      </c>
+      <c r="E17" s="13">
         <v>114</v>
       </c>
-      <c r="E17" s="18">
+      <c r="F17" s="13">
         <v>1246</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17" t="s">
+    <row r="18" spans="1:6" s="32" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="25"/>
+      <c r="B18" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="17">
         <v>3796629.2769999998</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="51">
+        <v>-108674.82</v>
+      </c>
+      <c r="E18" s="13">
         <v>596</v>
       </c>
-      <c r="E18" s="18">
+      <c r="F18" s="13">
         <v>6066</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17" t="s">
+    <row r="19" spans="1:6" s="32" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="25"/>
+      <c r="B19" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="17">
         <v>3793471.4890000001</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="51">
+        <v>-105517.03</v>
+      </c>
+      <c r="E19" s="13">
         <v>267</v>
       </c>
-      <c r="E19" s="18">
+      <c r="F19" s="13">
         <v>2776</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17" t="s">
+    <row r="20" spans="1:6" s="32" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="25"/>
+      <c r="B20" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="17">
         <v>3736560.327</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="51">
+        <v>-48605.87</v>
+      </c>
+      <c r="E20" s="13">
         <v>513</v>
       </c>
-      <c r="E20" s="18">
+      <c r="F20" s="13">
         <v>5236</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17" t="s">
+    <row r="21" spans="1:6" s="32" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="25"/>
+      <c r="B21" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="17">
         <v>3695066.8650000002</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="51">
+        <v>-7112.41</v>
+      </c>
+      <c r="E21" s="13">
         <v>493</v>
       </c>
-      <c r="E21" s="18">
+      <c r="F21" s="13">
         <v>5036</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17" t="s">
+    <row r="22" spans="1:6" s="32" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="25"/>
+      <c r="B22" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="22">
+      <c r="C22" s="53">
         <v>3687954.4640000002</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="52">
+        <v>0</v>
+      </c>
+      <c r="E22" s="13">
         <v>493</v>
       </c>
-      <c r="E22" s="18">
+      <c r="F22" s="13">
         <v>5036</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="17" t="s">
+    <row r="23" spans="1:6" s="32" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="21">
+      <c r="C23" s="17">
         <v>2339168.0060000001</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23" s="51">
+        <v>-100584.4</v>
+      </c>
+      <c r="E23" s="13">
         <v>1</v>
       </c>
-      <c r="E23" s="18">
+      <c r="F23" s="13">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17" t="s">
+    <row r="24" spans="1:6" s="32" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="25"/>
+      <c r="B24" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="17">
         <v>2314873.8590000002</v>
       </c>
-      <c r="D24" s="18">
+      <c r="D24" s="51">
+        <v>-76290.25</v>
+      </c>
+      <c r="E24" s="13">
         <v>97</v>
       </c>
-      <c r="E24" s="18">
+      <c r="F24" s="13">
         <v>1002</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17" t="s">
+    <row r="25" spans="1:6" s="32" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="25"/>
+      <c r="B25" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="21">
+      <c r="C25" s="17">
         <v>2316403.8119999999</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D25" s="51">
+        <v>-77820.2</v>
+      </c>
+      <c r="E25" s="13">
         <v>1479</v>
       </c>
-      <c r="E25" s="18">
+      <c r="F25" s="13">
         <v>14822</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17" t="s">
+    <row r="26" spans="1:6" s="32" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="25"/>
+      <c r="B26" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="21">
+      <c r="C26" s="17">
         <v>2299674.1060000001</v>
       </c>
-      <c r="D26" s="18">
+      <c r="D26" s="51">
+        <v>-61090.5</v>
+      </c>
+      <c r="E26" s="13">
         <v>249</v>
       </c>
-      <c r="E26" s="18">
+      <c r="F26" s="13">
         <v>2522</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17" t="s">
+    <row r="27" spans="1:6" s="32" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="25"/>
+      <c r="B27" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="21">
+      <c r="C27" s="17">
         <v>2255397.716</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D27" s="51">
+        <v>-16814.11</v>
+      </c>
+      <c r="E27" s="13">
         <v>463</v>
       </c>
-      <c r="E27" s="18">
+      <c r="F27" s="13">
         <v>4662</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17" t="s">
+    <row r="28" spans="1:6" s="32" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="25"/>
+      <c r="B28" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="21">
+      <c r="C28" s="17">
         <v>2254128.227</v>
       </c>
-      <c r="D28" s="18">
+      <c r="D28" s="51">
+        <v>-15544.62</v>
+      </c>
+      <c r="E28" s="13">
         <v>471</v>
       </c>
-      <c r="E28" s="18">
+      <c r="F28" s="13">
         <v>4742</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17" t="s">
+    <row r="29" spans="1:6" s="32" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="25"/>
+      <c r="B29" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="22">
+      <c r="C29" s="53">
         <v>2238583.6069999998</v>
       </c>
-      <c r="D29" s="18">
+      <c r="D29" s="52">
+        <v>0</v>
+      </c>
+      <c r="E29" s="13">
         <v>458</v>
       </c>
-      <c r="E29" s="18">
+      <c r="F29" s="13">
         <v>4612</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="17" t="s">
+    <row r="30" spans="1:6" s="32" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="21">
+      <c r="C30" s="17">
         <v>6005671.7549999999</v>
       </c>
-      <c r="D30" s="18">
+      <c r="D30" s="51">
+        <v>-230918.31</v>
+      </c>
+      <c r="E30" s="13">
         <v>1</v>
       </c>
-      <c r="E30" s="18">
+      <c r="F30" s="13">
         <v>218</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17" t="s">
+    <row r="31" spans="1:6" s="32" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="25"/>
+      <c r="B31" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="21">
+      <c r="C31" s="17">
         <v>5936151.6310000001</v>
       </c>
-      <c r="D31" s="18">
+      <c r="D31" s="51">
+        <v>-161398.18</v>
+      </c>
+      <c r="E31" s="13">
         <v>200</v>
       </c>
-      <c r="E31" s="18">
+      <c r="F31" s="13">
         <v>2208</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17" t="s">
+    <row r="32" spans="1:6" s="32" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="25"/>
+      <c r="B32" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="21">
+      <c r="C32" s="17">
         <v>5937376.8200000003</v>
       </c>
-      <c r="D32" s="18">
+      <c r="D32" s="51">
+        <v>-162623.37</v>
+      </c>
+      <c r="E32" s="13">
         <v>515</v>
       </c>
-      <c r="E32" s="18">
+      <c r="F32" s="13">
         <v>5358</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17" t="s">
+    <row r="33" spans="1:6" s="32" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="25"/>
+      <c r="B33" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="21">
+      <c r="C33" s="17">
         <v>5935114.2630000003</v>
       </c>
-      <c r="D33" s="18">
+      <c r="D33" s="51">
+        <v>-160360.81</v>
+      </c>
+      <c r="E33" s="13">
         <v>271</v>
       </c>
-      <c r="E33" s="18">
+      <c r="F33" s="13">
         <v>2918</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="17"/>
-      <c r="B34" s="17" t="s">
+    <row r="34" spans="1:6" s="32" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="25"/>
+      <c r="B34" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="21">
+      <c r="C34" s="17">
         <v>5839663.7740000002</v>
       </c>
-      <c r="D34" s="18">
+      <c r="D34" s="51">
+        <v>-64910.32</v>
+      </c>
+      <c r="E34" s="13">
         <v>520</v>
       </c>
-      <c r="E34" s="18">
+      <c r="F34" s="13">
         <v>5408</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="17"/>
-      <c r="B35" s="17" t="s">
+    <row r="35" spans="1:6" s="32" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="25"/>
+      <c r="B35" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="21">
+      <c r="C35" s="17">
         <v>5820918.0920000002</v>
       </c>
-      <c r="D35" s="18">
+      <c r="D35" s="51">
+        <v>-46164.639999999999</v>
+      </c>
+      <c r="E35" s="13">
         <v>496</v>
       </c>
-      <c r="E35" s="18">
+      <c r="F35" s="13">
         <v>5168</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="19"/>
-      <c r="B36" s="19" t="s">
+    <row r="36" spans="1:6" s="32" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="23">
+      <c r="C36" s="54">
         <v>5774753.4500000002</v>
       </c>
-      <c r="D36" s="20">
+      <c r="D36" s="55">
+        <v>0</v>
+      </c>
+      <c r="E36" s="28">
         <v>496</v>
       </c>
-      <c r="E36" s="20">
+      <c r="F36" s="28">
         <v>5168</v>
       </c>
     </row>
@@ -1324,8 +1521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E126"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A126"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3400,169 +3597,169 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView zoomScale="96" zoomScaleNormal="96" zoomScalePageLayoutView="96" workbookViewId="0">
-      <selection activeCell="H10" sqref="A1:H10"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="32" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" style="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="14" style="32" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="32"/>
+    <col min="1" max="1" width="4.33203125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" style="23" customWidth="1"/>
+    <col min="3" max="8" width="14" style="23" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C1" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
+      <c r="C1" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:8" s="12" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="46" t="s">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="47" t="s">
+      <c r="H2" s="27" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="12" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="30"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:8" s="12" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="25">
-        <v>0.12859999999999999</v>
-      </c>
-      <c r="D4" s="25">
-        <v>5.6439999999999997E-2</v>
-      </c>
-      <c r="E4" s="25">
-        <v>0.186</v>
-      </c>
-      <c r="F4" s="25">
-        <v>3.091E-2</v>
-      </c>
-      <c r="G4" s="25">
-        <v>8.974E-2</v>
-      </c>
-      <c r="H4" s="25">
-        <v>8.4080000000000002E-2</v>
+      <c r="B4" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="16">
+        <v>0.21190000000000001</v>
+      </c>
+      <c r="D4" s="16">
+        <v>9.6530000000000005E-2</v>
+      </c>
+      <c r="E4" s="16">
+        <v>0.2782</v>
+      </c>
+      <c r="F4" s="16">
+        <v>5.475E-2</v>
+      </c>
+      <c r="G4" s="16">
+        <v>0.13969999999999999</v>
+      </c>
+      <c r="H4" s="16">
+        <v>0.1376</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="12" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="25">
+      <c r="B5" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="16">
         <v>7.1760000000000004E-2</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="16">
         <v>3.0980000000000001E-2</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="16">
         <v>8.9700000000000002E-2</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="16">
         <v>1.5429999999999999E-2</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="16">
         <v>5.3519999999999998E-2</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5" s="16">
         <v>4.5330000000000002E-2</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="12" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="25">
-        <v>0.17449999999999999</v>
-      </c>
-      <c r="D6" s="25">
-        <v>7.5160000000000005E-2</v>
-      </c>
-      <c r="E6" s="25">
-        <v>0.2727</v>
-      </c>
-      <c r="F6" s="25">
-        <v>4.4350000000000001E-2</v>
-      </c>
-      <c r="G6" s="25">
-        <v>0.11169999999999999</v>
-      </c>
-      <c r="H6" s="25">
-        <v>0.1142</v>
+      <c r="A6" s="22"/>
+      <c r="B6" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="16">
+        <v>0.14510000000000001</v>
+      </c>
+      <c r="D6" s="16">
+        <v>5.8900000000000001E-2</v>
+      </c>
+      <c r="E6" s="16">
+        <v>0.26719999999999999</v>
+      </c>
+      <c r="F6" s="16">
+        <v>3.5979999999999998E-2</v>
+      </c>
+      <c r="G6" s="16">
+        <v>9.0069999999999997E-2</v>
+      </c>
+      <c r="H6" s="16">
+        <v>9.5380000000000006E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="12" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
     </row>
     <row r="8" spans="1:8" s="12" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="26">
-        <v>34.24</v>
-      </c>
-      <c r="D8" s="26">
-        <v>30.23</v>
-      </c>
-      <c r="E8" s="26">
-        <v>41.99</v>
-      </c>
-      <c r="F8" s="26">
-        <v>39.08</v>
-      </c>
-      <c r="G8" s="26">
-        <v>37.369999999999997</v>
-      </c>
-      <c r="H8" s="26">
-        <v>35.93</v>
+      <c r="B8" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="17">
+        <v>31.39</v>
+      </c>
+      <c r="D8" s="17">
+        <v>28.42</v>
+      </c>
+      <c r="E8" s="17">
+        <v>40.119999999999997</v>
+      </c>
+      <c r="F8" s="17">
+        <v>36.1</v>
+      </c>
+      <c r="G8" s="17">
+        <v>33.61</v>
+      </c>
+      <c r="H8" s="17">
+        <v>33.22</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="12" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="12" t="s">
-        <v>42</v>
+      <c r="B9" s="43" t="s">
+        <v>48</v>
       </c>
       <c r="C9" s="13">
         <v>41.02</v>
@@ -3579,32 +3776,32 @@
       <c r="G9" s="13">
         <v>44.38</v>
       </c>
-      <c r="H9" s="26">
+      <c r="H9" s="17">
         <v>41.33</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="12" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14"/>
-      <c r="B10" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="27">
-        <v>31.19</v>
-      </c>
-      <c r="D10" s="15">
-        <v>28.59</v>
-      </c>
-      <c r="E10" s="15">
-        <v>40.29</v>
-      </c>
-      <c r="F10" s="15">
-        <v>36.36</v>
-      </c>
-      <c r="G10" s="15">
-        <v>33.56</v>
-      </c>
-      <c r="H10" s="28">
-        <v>33.26</v>
+      <c r="B10" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="18">
+        <v>30.99</v>
+      </c>
+      <c r="D10" s="28">
+        <v>28.75</v>
+      </c>
+      <c r="E10" s="28">
+        <v>40.47</v>
+      </c>
+      <c r="F10" s="28">
+        <v>36.61</v>
+      </c>
+      <c r="G10" s="28">
+        <v>33.5</v>
+      </c>
+      <c r="H10" s="19">
+        <v>33.29</v>
       </c>
     </row>
   </sheetData>
@@ -3619,237 +3816,385 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H11" sqref="A2:H11"/>
+    <sheetView zoomScale="147" zoomScaleNormal="147" zoomScalePageLayoutView="147" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.33203125" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" hidden="1" customWidth="1"/>
     <col min="3" max="8" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C1" s="49" t="s">
+    <row r="1" spans="1:10" s="35" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="36"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="34"/>
+    </row>
+    <row r="2" spans="1:10" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+    </row>
+    <row r="3" spans="1:10" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-    </row>
-    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="34"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="46" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="48" t="s">
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+    </row>
+    <row r="4" spans="1:10" s="35" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="43" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="44" t="s">
+      <c r="D4" s="44">
+        <v>99.075109999999995</v>
+      </c>
+      <c r="E4" s="44">
+        <v>87.197919999999996</v>
+      </c>
+      <c r="F4" s="44">
+        <v>104.47150000000001</v>
+      </c>
+      <c r="G4" s="44">
+        <v>96.744420000000005</v>
+      </c>
+      <c r="H4" s="44">
+        <v>197.7107</v>
+      </c>
+      <c r="I4" s="44">
+        <v>126.4777</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="35" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="42"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="44">
+        <v>181.7039</v>
+      </c>
+      <c r="E5" s="44">
+        <v>148.39259999999999</v>
+      </c>
+      <c r="F5" s="44">
+        <v>187.01169999999999</v>
+      </c>
+      <c r="G5" s="44">
+        <v>188.3056</v>
+      </c>
+      <c r="H5" s="44">
+        <v>275.07569999999998</v>
+      </c>
+      <c r="I5" s="44">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="35" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="45"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="44">
+        <v>125.545</v>
+      </c>
+      <c r="E6" s="44">
+        <v>114.52370000000001</v>
+      </c>
+      <c r="F6" s="44">
+        <v>103.2013</v>
+      </c>
+      <c r="G6" s="44">
+        <v>120.37730000000001</v>
+      </c>
+      <c r="H6" s="44">
+        <v>255.7029</v>
+      </c>
+      <c r="I6" s="44">
+        <v>157.5804</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="35" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="37"/>
-    </row>
-    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="40"/>
-      <c r="B4" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="35">
-        <v>181.7039</v>
-      </c>
-      <c r="D4" s="35">
-        <v>148.39259999999999</v>
-      </c>
-      <c r="E4" s="35">
-        <v>187.01169999999999</v>
-      </c>
-      <c r="F4" s="35">
-        <v>188.3056</v>
-      </c>
-      <c r="G4" s="35">
-        <v>275.07569999999998</v>
-      </c>
-      <c r="H4" s="38">
-        <v>220.6816</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="40"/>
-      <c r="B5" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="35">
-        <v>224.62010000000001</v>
-      </c>
-      <c r="D5" s="35">
-        <v>201.7216</v>
-      </c>
-      <c r="E5" s="35">
-        <v>207.6728</v>
-      </c>
-      <c r="F5" s="35">
-        <v>217.1217</v>
-      </c>
-      <c r="G5" s="35">
-        <v>453.41359999999997</v>
-      </c>
-      <c r="H5" s="38">
-        <v>284.05810000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="45" t="s">
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+    </row>
+    <row r="8" spans="1:10" s="35" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+    </row>
+    <row r="9" spans="1:10" s="35" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="42"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="44">
+        <v>137.6952</v>
+      </c>
+      <c r="E9" s="44">
+        <v>120.71510000000001</v>
+      </c>
+      <c r="F9" s="44">
+        <v>150.1242</v>
+      </c>
+      <c r="G9" s="44">
+        <v>120.6018</v>
+      </c>
+      <c r="H9" s="44">
+        <v>243.61940000000001</v>
+      </c>
+      <c r="I9" s="44">
+        <v>167.95599999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="35" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="42"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="44">
+        <v>125.9284</v>
+      </c>
+      <c r="E10" s="44">
+        <v>105</v>
+      </c>
+      <c r="F10" s="44">
+        <v>105</v>
+      </c>
+      <c r="G10" s="44">
+        <v>157</v>
+      </c>
+      <c r="H10" s="44">
+        <v>257</v>
+      </c>
+      <c r="I10" s="44">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="35" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="45"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="44">
+        <v>142.7004</v>
+      </c>
+      <c r="E11" s="44">
+        <v>124.7015</v>
+      </c>
+      <c r="F11" s="44">
+        <v>139.3691</v>
+      </c>
+      <c r="G11" s="44">
+        <v>128.04060000000001</v>
+      </c>
+      <c r="H11" s="44">
+        <v>228.15530000000001</v>
+      </c>
+      <c r="I11" s="44">
+        <v>169.89359999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="35" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="38"/>
-    </row>
-    <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="40"/>
-      <c r="B7" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="35">
-        <v>125.9284</v>
-      </c>
-      <c r="D7" s="35">
-        <v>104.69759999999999</v>
-      </c>
-      <c r="E7" s="35">
-        <v>105.1913</v>
-      </c>
-      <c r="F7" s="35">
-        <v>156.785</v>
-      </c>
-      <c r="G7" s="35">
-        <v>256.71460000000002</v>
-      </c>
-      <c r="H7" s="38">
-        <v>166.89019999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="40"/>
-      <c r="B8" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="35">
-        <v>280.3956</v>
-      </c>
-      <c r="D8" s="35">
-        <v>245.41659999999999</v>
-      </c>
-      <c r="E8" s="35">
-        <v>289.49329999999998</v>
-      </c>
-      <c r="F8" s="35">
-        <v>248.64230000000001</v>
-      </c>
-      <c r="G8" s="35">
-        <v>471.77480000000003</v>
-      </c>
-      <c r="H8" s="38">
-        <v>337.84960000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="38"/>
-    </row>
-    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="40"/>
-      <c r="B10" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="35">
-        <v>205.15199999999999</v>
-      </c>
-      <c r="D10" s="35">
-        <v>180.4452</v>
-      </c>
-      <c r="E10" s="35">
-        <v>207.9564</v>
-      </c>
-      <c r="F10" s="35">
-        <v>247.7329</v>
-      </c>
-      <c r="G10" s="35">
-        <v>481.04270000000002</v>
-      </c>
-      <c r="H10" s="38">
-        <v>285.10509999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="41"/>
-      <c r="B11" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="36">
-        <v>201.1721</v>
-      </c>
-      <c r="D11" s="36">
-        <v>169.66900000000001</v>
-      </c>
-      <c r="E11" s="36">
-        <v>186.72819999999999</v>
-      </c>
-      <c r="F11" s="36">
-        <v>157.6944</v>
-      </c>
-      <c r="G11" s="36">
-        <v>247.44659999999999</v>
-      </c>
-      <c r="H11" s="39">
-        <v>219.63470000000001</v>
-      </c>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+    </row>
+    <row r="13" spans="1:10" s="35" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+    </row>
+    <row r="14" spans="1:10" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="42"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="44">
+        <v>99.706549999999993</v>
+      </c>
+      <c r="E14" s="44">
+        <v>82.515249999999995</v>
+      </c>
+      <c r="F14" s="44">
+        <v>93.904359999999997</v>
+      </c>
+      <c r="G14" s="44">
+        <v>74.610550000000003</v>
+      </c>
+      <c r="H14" s="44">
+        <v>126.2175</v>
+      </c>
+      <c r="I14" s="44">
+        <v>107.7115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="42"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="44">
+        <v>205</v>
+      </c>
+      <c r="E15" s="44">
+        <v>180</v>
+      </c>
+      <c r="F15" s="44">
+        <v>208</v>
+      </c>
+      <c r="G15" s="44">
+        <v>248</v>
+      </c>
+      <c r="H15" s="44">
+        <v>481</v>
+      </c>
+      <c r="I15" s="44">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="49"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="48">
+        <v>101.46550000000001</v>
+      </c>
+      <c r="E16" s="48">
+        <v>87.153800000000004</v>
+      </c>
+      <c r="F16" s="48">
+        <v>92.823830000000001</v>
+      </c>
+      <c r="G16" s="48">
+        <v>83.083839999999995</v>
+      </c>
+      <c r="H16" s="48">
+        <v>121.2291</v>
+      </c>
+      <c r="I16" s="48">
+        <v>111.92319999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A3:B3"/>
+  <mergeCells count="34">
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/figures/tables/Tables.xlsx
+++ b/figures/tables/Tables.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="460" windowWidth="25600" windowHeight="14520" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14840" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="PF-emp" sheetId="2" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="datasets" sheetId="4" r:id="rId3"/>
     <sheet name="metrics" sheetId="5" r:id="rId4"/>
     <sheet name="wds" sheetId="6" r:id="rId5"/>
+    <sheet name="IQ-TL" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="59">
   <si>
     <t>AICc</t>
   </si>
@@ -198,6 +199,24 @@
   <si>
     <t>Partition strategy</t>
   </si>
+  <si>
+    <t>Partition Strategy</t>
+  </si>
+  <si>
+    <t>Tree Length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Path Dist </t>
+  </si>
+  <si>
+    <t>KF dist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crawford </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harrington </t>
+  </si>
 </sst>
 </file>
 
@@ -206,7 +225,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -286,6 +305,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -382,7 +409,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -466,15 +493,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -488,62 +506,101 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="17">
@@ -840,8 +897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F36" sqref="A1:F36"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -852,7 +909,7 @@
     <col min="7" max="16384" width="10.83203125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="32" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="29" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>51</v>
       </c>
@@ -872,9 +929,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="32" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" s="29" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>8</v>
@@ -882,7 +939,7 @@
       <c r="C2" s="17">
         <v>2481257.253</v>
       </c>
-      <c r="D2" s="51">
+      <c r="D2" s="40">
         <v>-100298.83</v>
       </c>
       <c r="E2" s="13">
@@ -892,7 +949,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="32" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" s="29" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="25"/>
       <c r="B3" s="25" t="s">
         <v>7</v>
@@ -900,7 +957,7 @@
       <c r="C3" s="17">
         <v>2458688.9500000002</v>
       </c>
-      <c r="D3" s="51">
+      <c r="D3" s="40">
         <v>-77730.53</v>
       </c>
       <c r="E3" s="13">
@@ -910,7 +967,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="32" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" s="29" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="25"/>
       <c r="B4" s="25" t="s">
         <v>10</v>
@@ -918,7 +975,7 @@
       <c r="C4" s="17">
         <v>2467719.0279999999</v>
       </c>
-      <c r="D4" s="51">
+      <c r="D4" s="40">
         <v>-86760.61</v>
       </c>
       <c r="E4" s="13">
@@ -928,7 +985,7 @@
         <v>11466</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="32" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" s="29" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="25"/>
       <c r="B5" s="25" t="s">
         <v>9</v>
@@ -936,7 +993,7 @@
       <c r="C5" s="17">
         <v>2456062.6209999998</v>
       </c>
-      <c r="D5" s="51">
+      <c r="D5" s="40">
         <v>-75104.2</v>
       </c>
       <c r="E5" s="13">
@@ -946,7 +1003,7 @@
         <v>2236</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="32" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" s="29" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="25"/>
       <c r="B6" s="25" t="s">
         <v>5</v>
@@ -954,7 +1011,7 @@
       <c r="C6" s="17">
         <v>2410728.4369999999</v>
       </c>
-      <c r="D6" s="51">
+      <c r="D6" s="40">
         <v>-29770.02</v>
       </c>
       <c r="E6" s="13">
@@ -964,7 +1021,7 @@
         <v>4576</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="32" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" s="29" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25"/>
       <c r="B7" s="25" t="s">
         <v>6</v>
@@ -972,7 +1029,7 @@
       <c r="C7" s="17">
         <v>2397171.3229999999</v>
       </c>
-      <c r="D7" s="51">
+      <c r="D7" s="40">
         <v>-16212.9</v>
       </c>
       <c r="E7" s="13">
@@ -982,15 +1039,15 @@
         <v>4626</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="32" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" s="29" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="25"/>
       <c r="B8" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="53">
+      <c r="C8" s="42">
         <v>2380958.4180000001</v>
       </c>
-      <c r="D8" s="52">
+      <c r="D8" s="41">
         <v>0</v>
       </c>
       <c r="E8" s="13">
@@ -1000,9 +1057,9 @@
         <v>4536</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="32" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" s="29" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B9" s="25" t="s">
         <v>8</v>
@@ -1010,7 +1067,7 @@
       <c r="C9" s="17">
         <v>3192533.0189999999</v>
       </c>
-      <c r="D9" s="51">
+      <c r="D9" s="40">
         <v>-137222.82999999999</v>
       </c>
       <c r="E9" s="13">
@@ -1020,7 +1077,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="32" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" s="29" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="25"/>
       <c r="B10" s="25" t="s">
         <v>7</v>
@@ -1028,7 +1085,7 @@
       <c r="C10" s="17">
         <v>3166285.986</v>
       </c>
-      <c r="D10" s="51">
+      <c r="D10" s="40">
         <v>-110975.8</v>
       </c>
       <c r="E10" s="13">
@@ -1038,7 +1095,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="32" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" s="29" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="25"/>
       <c r="B11" s="25" t="s">
         <v>10</v>
@@ -1046,7 +1103,7 @@
       <c r="C11" s="17">
         <v>3162976.03</v>
       </c>
-      <c r="D11" s="51">
+      <c r="D11" s="40">
         <v>-107665.84</v>
       </c>
       <c r="E11" s="13">
@@ -1056,7 +1113,7 @@
         <v>15472</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="32" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" s="29" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="25"/>
       <c r="B12" s="25" t="s">
         <v>9</v>
@@ -1064,7 +1121,7 @@
       <c r="C12" s="17">
         <v>3147457.96</v>
       </c>
-      <c r="D12" s="51">
+      <c r="D12" s="40">
         <v>-92147.77</v>
       </c>
       <c r="E12" s="13">
@@ -1074,7 +1131,7 @@
         <v>3242</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="32" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" s="29" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="25"/>
       <c r="B13" s="25" t="s">
         <v>5</v>
@@ -1082,7 +1139,7 @@
       <c r="C13" s="17">
         <v>3088673.338</v>
       </c>
-      <c r="D13" s="51">
+      <c r="D13" s="40">
         <v>-33363.15</v>
       </c>
       <c r="E13" s="13">
@@ -1092,7 +1149,7 @@
         <v>6212</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="32" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" s="29" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="25"/>
       <c r="B14" s="25" t="s">
         <v>6</v>
@@ -1100,7 +1157,7 @@
       <c r="C14" s="17">
         <v>3094082.2310000001</v>
       </c>
-      <c r="D14" s="51">
+      <c r="D14" s="40">
         <v>-38772.04</v>
       </c>
       <c r="E14" s="13">
@@ -1110,15 +1167,15 @@
         <v>6442</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="32" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" s="29" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="25"/>
       <c r="B15" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="53">
+      <c r="C15" s="42">
         <v>3055310.19</v>
       </c>
-      <c r="D15" s="52">
+      <c r="D15" s="41">
         <v>0</v>
       </c>
       <c r="E15" s="13">
@@ -1128,9 +1185,9 @@
         <v>5922</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="32" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" s="29" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="25" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="B16" s="25" t="s">
         <v>8</v>
@@ -1138,7 +1195,7 @@
       <c r="C16" s="17">
         <v>3833182.3650000002</v>
       </c>
-      <c r="D16" s="51">
+      <c r="D16" s="40">
         <v>-145227.91</v>
       </c>
       <c r="E16" s="13">
@@ -1148,7 +1205,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="32" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" s="29" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="25"/>
       <c r="B17" s="25" t="s">
         <v>7</v>
@@ -1156,7 +1213,7 @@
       <c r="C17" s="17">
         <v>3800797.49</v>
       </c>
-      <c r="D17" s="51">
+      <c r="D17" s="40">
         <v>-112843.03</v>
       </c>
       <c r="E17" s="13">
@@ -1166,7 +1223,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="32" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" s="29" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="25"/>
       <c r="B18" s="25" t="s">
         <v>10</v>
@@ -1174,7 +1231,7 @@
       <c r="C18" s="17">
         <v>3796629.2769999998</v>
       </c>
-      <c r="D18" s="51">
+      <c r="D18" s="40">
         <v>-108674.82</v>
       </c>
       <c r="E18" s="13">
@@ -1184,7 +1241,7 @@
         <v>6066</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="32" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" s="29" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="25"/>
       <c r="B19" s="25" t="s">
         <v>9</v>
@@ -1192,7 +1249,7 @@
       <c r="C19" s="17">
         <v>3793471.4890000001</v>
       </c>
-      <c r="D19" s="51">
+      <c r="D19" s="40">
         <v>-105517.03</v>
       </c>
       <c r="E19" s="13">
@@ -1202,7 +1259,7 @@
         <v>2776</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="32" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" s="29" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="25"/>
       <c r="B20" s="25" t="s">
         <v>5</v>
@@ -1210,7 +1267,7 @@
       <c r="C20" s="17">
         <v>3736560.327</v>
       </c>
-      <c r="D20" s="51">
+      <c r="D20" s="40">
         <v>-48605.87</v>
       </c>
       <c r="E20" s="13">
@@ -1220,7 +1277,7 @@
         <v>5236</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="32" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" s="29" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="25"/>
       <c r="B21" s="25" t="s">
         <v>6</v>
@@ -1228,7 +1285,7 @@
       <c r="C21" s="17">
         <v>3695066.8650000002</v>
       </c>
-      <c r="D21" s="51">
+      <c r="D21" s="40">
         <v>-7112.41</v>
       </c>
       <c r="E21" s="13">
@@ -1238,15 +1295,15 @@
         <v>5036</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="32" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" s="29" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="25"/>
       <c r="B22" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="53">
+      <c r="C22" s="42">
         <v>3687954.4640000002</v>
       </c>
-      <c r="D22" s="52">
+      <c r="D22" s="41">
         <v>0</v>
       </c>
       <c r="E22" s="13">
@@ -1256,9 +1313,9 @@
         <v>5036</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="32" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" s="29" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="25" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="B23" s="25" t="s">
         <v>8</v>
@@ -1266,7 +1323,7 @@
       <c r="C23" s="17">
         <v>2339168.0060000001</v>
       </c>
-      <c r="D23" s="51">
+      <c r="D23" s="40">
         <v>-100584.4</v>
       </c>
       <c r="E23" s="13">
@@ -1276,7 +1333,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="32" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" s="29" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="25"/>
       <c r="B24" s="25" t="s">
         <v>7</v>
@@ -1284,7 +1341,7 @@
       <c r="C24" s="17">
         <v>2314873.8590000002</v>
       </c>
-      <c r="D24" s="51">
+      <c r="D24" s="40">
         <v>-76290.25</v>
       </c>
       <c r="E24" s="13">
@@ -1294,7 +1351,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="32" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" s="29" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="25"/>
       <c r="B25" s="25" t="s">
         <v>10</v>
@@ -1302,7 +1359,7 @@
       <c r="C25" s="17">
         <v>2316403.8119999999</v>
       </c>
-      <c r="D25" s="51">
+      <c r="D25" s="40">
         <v>-77820.2</v>
       </c>
       <c r="E25" s="13">
@@ -1312,7 +1369,7 @@
         <v>14822</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="32" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" s="29" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="25"/>
       <c r="B26" s="25" t="s">
         <v>9</v>
@@ -1320,7 +1377,7 @@
       <c r="C26" s="17">
         <v>2299674.1060000001</v>
       </c>
-      <c r="D26" s="51">
+      <c r="D26" s="40">
         <v>-61090.5</v>
       </c>
       <c r="E26" s="13">
@@ -1330,7 +1387,7 @@
         <v>2522</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="32" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" s="29" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="25"/>
       <c r="B27" s="25" t="s">
         <v>5</v>
@@ -1338,7 +1395,7 @@
       <c r="C27" s="17">
         <v>2255397.716</v>
       </c>
-      <c r="D27" s="51">
+      <c r="D27" s="40">
         <v>-16814.11</v>
       </c>
       <c r="E27" s="13">
@@ -1348,7 +1405,7 @@
         <v>4662</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="32" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" s="29" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="25"/>
       <c r="B28" s="25" t="s">
         <v>6</v>
@@ -1356,7 +1413,7 @@
       <c r="C28" s="17">
         <v>2254128.227</v>
       </c>
-      <c r="D28" s="51">
+      <c r="D28" s="40">
         <v>-15544.62</v>
       </c>
       <c r="E28" s="13">
@@ -1366,15 +1423,15 @@
         <v>4742</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="32" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" s="29" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="25"/>
       <c r="B29" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="53">
+      <c r="C29" s="42">
         <v>2238583.6069999998</v>
       </c>
-      <c r="D29" s="52">
+      <c r="D29" s="41">
         <v>0</v>
       </c>
       <c r="E29" s="13">
@@ -1384,9 +1441,9 @@
         <v>4612</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="32" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" s="29" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="25" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="B30" s="25" t="s">
         <v>8</v>
@@ -1394,7 +1451,7 @@
       <c r="C30" s="17">
         <v>6005671.7549999999</v>
       </c>
-      <c r="D30" s="51">
+      <c r="D30" s="40">
         <v>-230918.31</v>
       </c>
       <c r="E30" s="13">
@@ -1404,7 +1461,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="32" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" s="29" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="25"/>
       <c r="B31" s="25" t="s">
         <v>7</v>
@@ -1412,7 +1469,7 @@
       <c r="C31" s="17">
         <v>5936151.6310000001</v>
       </c>
-      <c r="D31" s="51">
+      <c r="D31" s="40">
         <v>-161398.18</v>
       </c>
       <c r="E31" s="13">
@@ -1422,7 +1479,7 @@
         <v>2208</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="32" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" s="29" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="25"/>
       <c r="B32" s="25" t="s">
         <v>10</v>
@@ -1430,7 +1487,7 @@
       <c r="C32" s="17">
         <v>5937376.8200000003</v>
       </c>
-      <c r="D32" s="51">
+      <c r="D32" s="40">
         <v>-162623.37</v>
       </c>
       <c r="E32" s="13">
@@ -1440,7 +1497,7 @@
         <v>5358</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="32" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" s="29" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="25"/>
       <c r="B33" s="25" t="s">
         <v>9</v>
@@ -1448,7 +1505,7 @@
       <c r="C33" s="17">
         <v>5935114.2630000003</v>
       </c>
-      <c r="D33" s="51">
+      <c r="D33" s="40">
         <v>-160360.81</v>
       </c>
       <c r="E33" s="13">
@@ -1458,7 +1515,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="32" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" s="29" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="25"/>
       <c r="B34" s="25" t="s">
         <v>5</v>
@@ -1466,7 +1523,7 @@
       <c r="C34" s="17">
         <v>5839663.7740000002</v>
       </c>
-      <c r="D34" s="51">
+      <c r="D34" s="40">
         <v>-64910.32</v>
       </c>
       <c r="E34" s="13">
@@ -1476,7 +1533,7 @@
         <v>5408</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="32" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" s="29" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="25"/>
       <c r="B35" s="25" t="s">
         <v>6</v>
@@ -1484,7 +1541,7 @@
       <c r="C35" s="17">
         <v>5820918.0920000002</v>
       </c>
-      <c r="D35" s="51">
+      <c r="D35" s="40">
         <v>-46164.639999999999</v>
       </c>
       <c r="E35" s="13">
@@ -1494,15 +1551,15 @@
         <v>5168</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="32" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" s="29" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="14"/>
       <c r="B36" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="54">
+      <c r="C36" s="43">
         <v>5774753.4500000002</v>
       </c>
-      <c r="D36" s="55">
+      <c r="D36" s="44">
         <v>0</v>
       </c>
       <c r="E36" s="28">
@@ -1521,8 +1578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A103" sqref="A103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1550,7 +1607,7 @@
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="B2" s="5">
         <v>0</v>
@@ -1927,7 +1984,7 @@
     </row>
     <row r="27" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B27" s="5">
         <v>0</v>
@@ -2304,7 +2361,7 @@
     </row>
     <row r="52" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="B52" s="5">
         <v>0</v>
@@ -2681,7 +2738,7 @@
     </row>
     <row r="77" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="B77" s="5">
         <v>0</v>
@@ -3058,7 +3115,7 @@
     </row>
     <row r="102" spans="1:5" s="8" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="B102" s="5">
         <v>0</v>
@@ -3443,14 +3500,15 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.83203125" customWidth="1"/>
     <col min="2" max="3" width="15.83203125" customWidth="1"/>
-    <col min="4" max="7" width="11.83203125" customWidth="1"/>
+    <col min="4" max="6" width="11.83203125" customWidth="1"/>
+    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
@@ -3478,8 +3536,8 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
-        <v>3</v>
+      <c r="A2" s="45" t="s">
+        <v>33</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>17</v>
@@ -3496,12 +3554,14 @@
       <c r="F2" s="13">
         <v>10</v>
       </c>
-      <c r="G2" s="13"/>
+      <c r="G2" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
-        <v>12</v>
+      <c r="A3" s="45" t="s">
+        <v>34</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>18</v>
@@ -3518,12 +3578,14 @@
       <c r="F3" s="13">
         <v>33</v>
       </c>
-      <c r="G3" s="13"/>
+      <c r="G3" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
-        <v>11</v>
+      <c r="A4" s="45" t="s">
+        <v>35</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>23</v>
@@ -3540,12 +3602,14 @@
       <c r="F4" s="13">
         <v>55</v>
       </c>
-      <c r="G4" s="13"/>
+      <c r="G4" s="12" t="s">
+        <v>11</v>
+      </c>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
-        <v>13</v>
+      <c r="A5" s="45" t="s">
+        <v>36</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>19</v>
@@ -3562,12 +3626,14 @@
       <c r="F5" s="13">
         <v>18</v>
       </c>
-      <c r="G5" s="13"/>
+      <c r="G5" s="12" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>21</v>
@@ -3584,7 +3650,9 @@
       <c r="F6" s="15">
         <v>106</v>
       </c>
-      <c r="G6" s="15"/>
+      <c r="G6" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="H6" s="1"/>
     </row>
   </sheetData>
@@ -3609,14 +3677,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
     </row>
     <row r="2" spans="1:8" s="12" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="24"/>
@@ -3641,10 +3709,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" s="12" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="29"/>
+      <c r="B3" s="46"/>
       <c r="C3" s="20"/>
       <c r="D3" s="20"/>
       <c r="E3" s="20"/>
@@ -3653,7 +3721,7 @@
       <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:8" s="12" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="35" t="s">
         <v>47</v>
       </c>
       <c r="C4" s="16">
@@ -3676,7 +3744,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" s="12" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="35" t="s">
         <v>48</v>
       </c>
       <c r="C5" s="16">
@@ -3700,7 +3768,7 @@
     </row>
     <row r="6" spans="1:8" s="12" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="22"/>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="35" t="s">
         <v>49</v>
       </c>
       <c r="C6" s="16">
@@ -3723,10 +3791,10 @@
       </c>
     </row>
     <row r="7" spans="1:8" s="12" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="30"/>
+      <c r="B7" s="47"/>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
@@ -3735,7 +3803,7 @@
       <c r="H7" s="16"/>
     </row>
     <row r="8" spans="1:8" s="12" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="35" t="s">
         <v>47</v>
       </c>
       <c r="C8" s="17">
@@ -3758,7 +3826,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" s="12" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="35" t="s">
         <v>48</v>
       </c>
       <c r="C9" s="13">
@@ -3782,7 +3850,7 @@
     </row>
     <row r="10" spans="1:8" s="12" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14"/>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="39" t="s">
         <v>49</v>
       </c>
       <c r="C10" s="18">
@@ -3818,7 +3886,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView zoomScale="147" zoomScaleNormal="147" zoomScalePageLayoutView="147" workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="60" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
@@ -3829,353 +3897,342 @@
     <col min="3" max="8" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="35" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36"/>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="38" t="s">
+    <row r="1" spans="1:10" s="32" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="33"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="34"/>
-    </row>
-    <row r="2" spans="1:10" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="39" t="s">
+      <c r="J1" s="31"/>
+    </row>
+    <row r="2" spans="1:10" s="32" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-    </row>
-    <row r="3" spans="1:10" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="41" t="s">
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+    </row>
+    <row r="3" spans="1:10" s="32" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-    </row>
-    <row r="4" spans="1:10" s="35" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="42"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="43" t="s">
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+    </row>
+    <row r="4" spans="1:10" s="32" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="49"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="44">
+      <c r="D4" s="36">
         <v>99.075109999999995</v>
       </c>
-      <c r="E4" s="44">
+      <c r="E4" s="36">
         <v>87.197919999999996</v>
       </c>
-      <c r="F4" s="44">
+      <c r="F4" s="36">
         <v>104.47150000000001</v>
       </c>
-      <c r="G4" s="44">
+      <c r="G4" s="36">
         <v>96.744420000000005</v>
       </c>
-      <c r="H4" s="44">
+      <c r="H4" s="36">
         <v>197.7107</v>
       </c>
-      <c r="I4" s="44">
+      <c r="I4" s="36">
         <v>126.4777</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="35" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="42"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="43" t="s">
+    <row r="5" spans="1:10" s="32" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="49"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="44">
+      <c r="D5" s="36">
         <v>181.7039</v>
       </c>
-      <c r="E5" s="44">
+      <c r="E5" s="36">
         <v>148.39259999999999</v>
       </c>
-      <c r="F5" s="44">
+      <c r="F5" s="36">
         <v>187.01169999999999</v>
       </c>
-      <c r="G5" s="44">
+      <c r="G5" s="36">
         <v>188.3056</v>
       </c>
-      <c r="H5" s="44">
+      <c r="H5" s="36">
         <v>275.07569999999998</v>
       </c>
-      <c r="I5" s="44">
+      <c r="I5" s="36">
         <v>221</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="35" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="45"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="43" t="s">
+    <row r="6" spans="1:10" s="32" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="50"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="44">
+      <c r="D6" s="36">
         <v>125.545</v>
       </c>
-      <c r="E6" s="44">
+      <c r="E6" s="36">
         <v>114.52370000000001</v>
       </c>
-      <c r="F6" s="44">
+      <c r="F6" s="36">
         <v>103.2013</v>
       </c>
-      <c r="G6" s="44">
+      <c r="G6" s="36">
         <v>120.37730000000001</v>
       </c>
-      <c r="H6" s="44">
+      <c r="H6" s="36">
         <v>255.7029</v>
       </c>
-      <c r="I6" s="44">
+      <c r="I6" s="36">
         <v>157.5804</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="35" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="46" t="s">
+    <row r="7" spans="1:10" s="32" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-    </row>
-    <row r="8" spans="1:10" s="35" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="41" t="s">
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+    </row>
+    <row r="8" spans="1:10" s="32" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-    </row>
-    <row r="9" spans="1:10" s="35" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="42"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="43" t="s">
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+    </row>
+    <row r="9" spans="1:10" s="32" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="49"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="44">
+      <c r="D9" s="36">
         <v>137.6952</v>
       </c>
-      <c r="E9" s="44">
+      <c r="E9" s="36">
         <v>120.71510000000001</v>
       </c>
-      <c r="F9" s="44">
+      <c r="F9" s="36">
         <v>150.1242</v>
       </c>
-      <c r="G9" s="44">
+      <c r="G9" s="36">
         <v>120.6018</v>
       </c>
-      <c r="H9" s="44">
+      <c r="H9" s="36">
         <v>243.61940000000001</v>
       </c>
-      <c r="I9" s="44">
+      <c r="I9" s="36">
         <v>167.95599999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="35" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="42"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="43" t="s">
+    <row r="10" spans="1:10" s="32" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="49"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="44">
+      <c r="D10" s="36">
         <v>125.9284</v>
       </c>
-      <c r="E10" s="44">
+      <c r="E10" s="36">
         <v>105</v>
       </c>
-      <c r="F10" s="44">
+      <c r="F10" s="36">
         <v>105</v>
       </c>
-      <c r="G10" s="44">
+      <c r="G10" s="36">
         <v>157</v>
       </c>
-      <c r="H10" s="44">
+      <c r="H10" s="36">
         <v>257</v>
       </c>
-      <c r="I10" s="44">
+      <c r="I10" s="36">
         <v>167</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="35" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="45"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="43" t="s">
+    <row r="11" spans="1:10" s="32" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="50"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="44">
+      <c r="D11" s="36">
         <v>142.7004</v>
       </c>
-      <c r="E11" s="44">
+      <c r="E11" s="36">
         <v>124.7015</v>
       </c>
-      <c r="F11" s="44">
+      <c r="F11" s="36">
         <v>139.3691</v>
       </c>
-      <c r="G11" s="44">
+      <c r="G11" s="36">
         <v>128.04060000000001</v>
       </c>
-      <c r="H11" s="44">
+      <c r="H11" s="36">
         <v>228.15530000000001</v>
       </c>
-      <c r="I11" s="44">
+      <c r="I11" s="36">
         <v>169.89359999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="35" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="46" t="s">
+    <row r="12" spans="1:10" s="32" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-    </row>
-    <row r="13" spans="1:10" s="35" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="41" t="s">
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+    </row>
+    <row r="13" spans="1:10" s="32" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
     </row>
     <row r="14" spans="1:10" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="42"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="43" t="s">
+      <c r="A14" s="49"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="44">
+      <c r="D14" s="36">
         <v>99.706549999999993</v>
       </c>
-      <c r="E14" s="44">
+      <c r="E14" s="36">
         <v>82.515249999999995</v>
       </c>
-      <c r="F14" s="44">
+      <c r="F14" s="36">
         <v>93.904359999999997</v>
       </c>
-      <c r="G14" s="44">
+      <c r="G14" s="36">
         <v>74.610550000000003</v>
       </c>
-      <c r="H14" s="44">
+      <c r="H14" s="36">
         <v>126.2175</v>
       </c>
-      <c r="I14" s="44">
+      <c r="I14" s="36">
         <v>107.7115</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="42"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="43" t="s">
+      <c r="A15" s="49"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="44">
+      <c r="D15" s="36">
         <v>205</v>
       </c>
-      <c r="E15" s="44">
+      <c r="E15" s="36">
         <v>180</v>
       </c>
-      <c r="F15" s="44">
+      <c r="F15" s="36">
         <v>208</v>
       </c>
-      <c r="G15" s="44">
+      <c r="G15" s="36">
         <v>248</v>
       </c>
-      <c r="H15" s="44">
+      <c r="H15" s="36">
         <v>481</v>
       </c>
-      <c r="I15" s="44">
+      <c r="I15" s="36">
         <v>285</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="49"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="47" t="s">
+      <c r="A16" s="53"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="48">
+      <c r="D16" s="38">
         <v>101.46550000000001</v>
       </c>
-      <c r="E16" s="48">
+      <c r="E16" s="38">
         <v>87.153800000000004</v>
       </c>
-      <c r="F16" s="48">
+      <c r="F16" s="38">
         <v>92.823830000000001</v>
       </c>
-      <c r="G16" s="48">
+      <c r="G16" s="38">
         <v>83.083839999999995</v>
       </c>
-      <c r="H16" s="48">
+      <c r="H16" s="38">
         <v>121.2291</v>
       </c>
-      <c r="I16" s="48">
+      <c r="I16" s="38">
         <v>111.92319999999999</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="33"/>
+      <c r="A17" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A9:B9"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
@@ -4191,11 +4248,700 @@
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.1640625" style="58" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" style="57" customWidth="1"/>
+    <col min="3" max="6" width="16.1640625" style="58" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="59"/>
+      <c r="B1" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="59" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="65" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="62">
+        <v>0.308</v>
+      </c>
+      <c r="D2" s="62">
+        <v>1.3440000000000001</v>
+      </c>
+      <c r="E2" s="62">
+        <v>0</v>
+      </c>
+      <c r="F2" s="62">
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="61"/>
+      <c r="B3" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="62">
+        <v>0.318</v>
+      </c>
+      <c r="D3" s="62">
+        <v>1.3049999999999999</v>
+      </c>
+      <c r="E3" s="62">
+        <v>0</v>
+      </c>
+      <c r="F3" s="62">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="61"/>
+      <c r="B4" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="62">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="D4" s="62">
+        <v>1.264</v>
+      </c>
+      <c r="E4" s="62">
+        <v>0</v>
+      </c>
+      <c r="F4" s="62">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="61"/>
+      <c r="B5" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="62">
+        <v>0.318</v>
+      </c>
+      <c r="D5" s="62">
+        <v>1.3029999999999999</v>
+      </c>
+      <c r="E5" s="62">
+        <v>0</v>
+      </c>
+      <c r="F5" s="62">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="61"/>
+      <c r="B6" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="62">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="D6" s="62">
+        <v>1.024</v>
+      </c>
+      <c r="E6" s="62">
+        <v>0</v>
+      </c>
+      <c r="F6" s="62">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="61"/>
+      <c r="B7" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="62">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="D7" s="62">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="E7" s="62">
+        <v>0</v>
+      </c>
+      <c r="F7" s="62">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="61"/>
+      <c r="B8" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="62">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="D8" s="62">
+        <v>1</v>
+      </c>
+      <c r="E8" s="62">
+        <v>0</v>
+      </c>
+      <c r="F8" s="62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="62">
+        <v>0.373</v>
+      </c>
+      <c r="D9" s="62">
+        <v>1.5409999999999999</v>
+      </c>
+      <c r="E9" s="62">
+        <v>24.617000000000001</v>
+      </c>
+      <c r="F9" s="62">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="61"/>
+      <c r="B10" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="62">
+        <v>0.4</v>
+      </c>
+      <c r="D10" s="62">
+        <v>1.4370000000000001</v>
+      </c>
+      <c r="E10" s="62">
+        <v>28.425000000000001</v>
+      </c>
+      <c r="F10" s="62">
+        <v>5.6000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="61"/>
+      <c r="B11" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="62">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="D11" s="62">
+        <v>1.3879999999999999</v>
+      </c>
+      <c r="E11" s="62">
+        <v>25.533999999999999</v>
+      </c>
+      <c r="F11" s="62">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="61"/>
+      <c r="B12" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="62">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="D12" s="62">
+        <v>1.4670000000000001</v>
+      </c>
+      <c r="E12" s="62">
+        <v>0</v>
+      </c>
+      <c r="F12" s="62">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="61"/>
+      <c r="B13" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="62">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="D13" s="62">
+        <v>1.0880000000000001</v>
+      </c>
+      <c r="E13" s="62">
+        <v>12.728</v>
+      </c>
+      <c r="F13" s="62">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="61"/>
+      <c r="B14" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="62">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="D14" s="62">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="E14" s="62">
+        <v>24.818999999999999</v>
+      </c>
+      <c r="F14" s="62">
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="61"/>
+      <c r="B15" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="62">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="D15" s="62">
+        <v>1</v>
+      </c>
+      <c r="E15" s="62">
+        <v>0</v>
+      </c>
+      <c r="F15" s="62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="62">
+        <v>2.4460000000000002</v>
+      </c>
+      <c r="D16" s="62">
+        <v>1.1419999999999999</v>
+      </c>
+      <c r="E16" s="62">
+        <v>0</v>
+      </c>
+      <c r="F16" s="62">
+        <v>0.124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="61"/>
+      <c r="B17" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="62">
+        <v>2.379</v>
+      </c>
+      <c r="D17" s="62">
+        <v>1.1739999999999999</v>
+      </c>
+      <c r="E17" s="62">
+        <v>0</v>
+      </c>
+      <c r="F17" s="62">
+        <v>0.13200000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="61"/>
+      <c r="B18" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="62">
+        <v>3.3359999999999999</v>
+      </c>
+      <c r="D18" s="62">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="E18" s="62">
+        <v>0</v>
+      </c>
+      <c r="F18" s="62">
+        <v>0.23799999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="61"/>
+      <c r="B19" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="62">
+        <v>2.9129999999999998</v>
+      </c>
+      <c r="D19" s="62">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="E19" s="62">
+        <v>0</v>
+      </c>
+      <c r="F19" s="62">
+        <v>0.13900000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="61"/>
+      <c r="B20" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="62">
+        <v>3.0910000000000002</v>
+      </c>
+      <c r="D20" s="62">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="E20" s="62">
+        <v>0</v>
+      </c>
+      <c r="F20" s="62">
+        <v>0.16400000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="61"/>
+      <c r="B21" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="62">
+        <v>2.7170000000000001</v>
+      </c>
+      <c r="D21" s="62">
+        <v>1.028</v>
+      </c>
+      <c r="E21" s="62">
+        <v>0</v>
+      </c>
+      <c r="F21" s="62">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="61"/>
+      <c r="B22" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="62">
+        <v>2.7930000000000001</v>
+      </c>
+      <c r="D22" s="62">
+        <v>1</v>
+      </c>
+      <c r="E22" s="62">
+        <v>0</v>
+      </c>
+      <c r="F22" s="62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="62">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="D23" s="62">
+        <v>1.58</v>
+      </c>
+      <c r="E23" s="62">
+        <v>0</v>
+      </c>
+      <c r="F23" s="62">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="61"/>
+      <c r="B24" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="62">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="D24" s="62">
+        <v>1.506</v>
+      </c>
+      <c r="E24" s="62">
+        <v>0</v>
+      </c>
+      <c r="F24" s="62">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="61"/>
+      <c r="B25" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="62">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="D25" s="62">
+        <v>1.5229999999999999</v>
+      </c>
+      <c r="E25" s="62">
+        <v>0</v>
+      </c>
+      <c r="F25" s="62">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="61"/>
+      <c r="B26" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="62">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="D26" s="62">
+        <v>1.5429999999999999</v>
+      </c>
+      <c r="E26" s="62">
+        <v>0</v>
+      </c>
+      <c r="F26" s="62">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="61"/>
+      <c r="B27" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="62">
+        <v>0.126</v>
+      </c>
+      <c r="D27" s="62">
+        <v>1.234</v>
+      </c>
+      <c r="E27" s="62">
+        <v>0</v>
+      </c>
+      <c r="F27" s="62">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="61"/>
+      <c r="B28" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="62">
+        <v>0.112</v>
+      </c>
+      <c r="D28" s="62">
+        <v>1.389</v>
+      </c>
+      <c r="E28" s="62">
+        <v>0</v>
+      </c>
+      <c r="F28" s="62">
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="61"/>
+      <c r="B29" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="62">
+        <v>0.156</v>
+      </c>
+      <c r="D29" s="62">
+        <v>1</v>
+      </c>
+      <c r="E29" s="62">
+        <v>0</v>
+      </c>
+      <c r="F29" s="62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="62">
+        <v>1.5880000000000001</v>
+      </c>
+      <c r="D30" s="62">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="E30" s="62">
+        <v>117.49</v>
+      </c>
+      <c r="F30" s="62">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="61"/>
+      <c r="B31" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="62">
+        <v>1.591</v>
+      </c>
+      <c r="D31" s="62">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="E31" s="62">
+        <v>85.37</v>
+      </c>
+      <c r="F31" s="62">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="61"/>
+      <c r="B32" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="62">
+        <v>1.595</v>
+      </c>
+      <c r="D32" s="62">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="E32" s="62">
+        <v>20.199000000000002</v>
+      </c>
+      <c r="F32" s="62">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="61"/>
+      <c r="B33" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="62">
+        <v>1.593</v>
+      </c>
+      <c r="D33" s="62">
+        <v>0.97</v>
+      </c>
+      <c r="E33" s="62">
+        <v>112.84099999999999</v>
+      </c>
+      <c r="F33" s="62">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="61"/>
+      <c r="B34" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="62">
+        <v>1.6160000000000001</v>
+      </c>
+      <c r="D34" s="62">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="E34" s="62">
+        <v>99.76</v>
+      </c>
+      <c r="F34" s="62">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="61"/>
+      <c r="B35" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="62">
+        <v>1.643</v>
+      </c>
+      <c r="D35" s="62">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="E35" s="62">
+        <v>27.056000000000001</v>
+      </c>
+      <c r="F35" s="62">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="63"/>
+      <c r="B36" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="64">
+        <v>1.546</v>
+      </c>
+      <c r="D36" s="64">
+        <v>1</v>
+      </c>
+      <c r="E36" s="64">
+        <v>0</v>
+      </c>
+      <c r="F36" s="64">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>